--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D931A9E-05DB-4D70-8691-101FA435939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00901271-9AE6-41A0-8935-BA585537D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41680" yWindow="5090" windowWidth="25050" windowHeight="15270" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="39230" yWindow="710" windowWidth="17370" windowHeight="13000" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,7 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     8/4/25: 982m consensus
+11/3/25: 1090m consensus
 Q2 guidance: 1.083-1.087m</t>
       </text>
     </comment>
@@ -126,24 +127,27 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    8/4/25: 1090m consensus</t>
+    8/4/25: 1090m consensus
+11/3/25: 1180m consensus</t>
       </text>
     </comment>
-    <comment ref="AH19" authorId="9" shapeId="0" xr:uid="{4718D922-3642-4B6E-9947-FAF641F97E57}">
+    <comment ref="AL19" authorId="9" shapeId="0" xr:uid="{4718D922-3642-4B6E-9947-FAF641F97E57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q4 guidance: 3.741-3.757B
-Q1 guidance: 3.890-3.902B</t>
+Q1 guidance: 3.890-3.902B
+11/3/25 consensus: 4140m</t>
       </text>
     </comment>
-    <comment ref="AI19" authorId="10" shapeId="0" xr:uid="{9ECDA8CE-CCBF-4EF1-B8E5-9B186E5F3F67}">
+    <comment ref="AM19" authorId="10" shapeId="0" xr:uid="{9ECDA8CE-CCBF-4EF1-B8E5-9B186E5F3F67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    8/4/25: 5010 consensus</t>
+    8/4/25: 5010 consensus
+11/3/25: 5630 consensus</t>
       </text>
     </comment>
     <comment ref="W30" authorId="11" shapeId="0" xr:uid="{4CD5B200-8831-4A55-912D-586E0C3A285E}">
@@ -154,7 +158,7 @@
     Q424 guidance: 354-358m adj income</t>
       </text>
     </comment>
-    <comment ref="AH30" authorId="12" shapeId="0" xr:uid="{7FB04DE7-58D8-49D7-B511-A899F9660455}">
+    <comment ref="AL30" authorId="12" shapeId="0" xr:uid="{7FB04DE7-58D8-49D7-B511-A899F9660455}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>Price</t>
   </si>
@@ -517,6 +521,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>ROIC</t>
   </si>
 </sst>
 </file>
@@ -654,16 +685,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>16102</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>16102</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>99218</xdr:rowOff>
+      <xdr:rowOff>158182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -678,7 +709,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15605352" y="0"/>
+          <a:off x="16226744" y="58964"/>
           <a:ext cx="0" cy="15194075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -704,13 +735,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>30171</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>30171</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>85192</xdr:rowOff>
@@ -1082,22 +1113,26 @@
   </threadedComment>
   <threadedComment ref="Y19" dT="2025-08-04T17:43:13.86" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{BD4679AD-E4F1-4099-930D-0A439EE55BBF}">
     <text>8/4/25: 982m consensus
+11/3/25: 1090m consensus
 Q2 guidance: 1.083-1.087m</text>
   </threadedComment>
   <threadedComment ref="Z19" dT="2025-08-04T17:43:23.57" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{5D579E32-7183-4E53-9254-36DD804F83F1}">
-    <text>8/4/25: 1090m consensus</text>
+    <text>8/4/25: 1090m consensus
+11/3/25: 1180m consensus</text>
   </threadedComment>
-  <threadedComment ref="AH19" dT="2025-05-05T15:20:42.41" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{4718D922-3642-4B6E-9947-FAF641F97E57}">
+  <threadedComment ref="AL19" dT="2025-05-05T15:20:42.41" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{4718D922-3642-4B6E-9947-FAF641F97E57}">
     <text>Q4 guidance: 3.741-3.757B
-Q1 guidance: 3.890-3.902B</text>
+Q1 guidance: 3.890-3.902B
+11/3/25 consensus: 4140m</text>
   </threadedComment>
-  <threadedComment ref="AI19" dT="2025-08-04T17:43:45.88" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{9ECDA8CE-CCBF-4EF1-B8E5-9B186E5F3F67}">
-    <text>8/4/25: 5010 consensus</text>
+  <threadedComment ref="AM19" dT="2025-08-04T17:43:45.88" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{9ECDA8CE-CCBF-4EF1-B8E5-9B186E5F3F67}">
+    <text>8/4/25: 5010 consensus
+11/3/25: 5630 consensus</text>
   </threadedComment>
   <threadedComment ref="W30" dT="2025-05-05T14:41:31.93" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{4CD5B200-8831-4A55-912D-586E0C3A285E}">
     <text>Q424 guidance: 354-358m adj income</text>
   </threadedComment>
-  <threadedComment ref="AH30" dT="2025-05-05T15:20:56.81" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{7FB04DE7-58D8-49D7-B511-A899F9660455}">
+  <threadedComment ref="AL30" dT="2025-05-05T15:20:56.81" personId="{566BCB84-E7E4-4632-995E-E05E6DB7594C}" id="{7FB04DE7-58D8-49D7-B511-A899F9660455}">
     <text>Q424 guidance: Adj NI: 1.551-1.567B
 Q125 guidance: 1.6-1.8B</text>
   </threadedComment>
@@ -1114,7 +1149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1129,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1140,11 +1177,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <f>2262.906259+96.001138</f>
-        <v>2358.9073969999999</v>
+        <v>2571</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1153,7 +1189,7 @@
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>408090.979681</v>
+        <v>455067</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1161,11 +1197,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>993.464+4437.225</f>
-        <v>5430.6890000000003</v>
+        <v>6438</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1185,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1203,7 +1238,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>402660.29068099998</v>
+        <v>448629</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1241,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:AM89"/>
+  <dimension ref="A1:DR89"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN19" sqref="AN19"/>
+      <selection pane="bottomRight" activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1256,14 +1291,16 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="14" width="9.1796875" style="2"/>
     <col min="15" max="20" width="8.81640625" style="2"/>
+    <col min="24" max="24" width="8.81640625" customWidth="1"/>
+    <col min="46" max="46" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1336,51 +1373,83 @@
       <c r="Z2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC2">
+      <c r="AA2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2">
         <v>2020</v>
       </c>
-      <c r="AD2">
-        <f>AC2+1</f>
+      <c r="AH2">
+        <f>AG2+1</f>
         <v>2021</v>
       </c>
-      <c r="AE2">
-        <f>AD2+1</f>
+      <c r="AI2">
+        <f>AH2+1</f>
         <v>2022</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AM2" si="0">AE2+1</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AQ2" si="0">AI2+1</f>
         <v>2023</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AR2">
+        <f>+AQ2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AS2">
+        <f>+AR2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AT2">
+        <f>+AS2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AU2">
+        <f>+AT2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AV2">
+        <f>+AU2+1</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>109</v>
       </c>
@@ -1414,16 +1483,24 @@
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -1441,19 +1518,25 @@
       <c r="W5" s="4">
         <v>2320</v>
       </c>
-      <c r="X5" s="2"/>
+      <c r="X5" s="4">
+        <v>2790</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AE5" s="3">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AI5" s="3">
         <f>+N5</f>
         <v>3700</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AJ5" s="3">
         <f>+R5</f>
         <v>3900</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>105</v>
       </c>
@@ -1469,13 +1552,19 @@
       <c r="W6" s="2">
         <v>810</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>843</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>107</v>
       </c>
@@ -1515,10 +1604,14 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>108</v>
       </c>
@@ -1558,10 +1651,14 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>106</v>
       </c>
@@ -1601,16 +1698,24 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
@@ -1661,8 +1766,12 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>103</v>
       </c>
@@ -1710,11 +1819,17 @@
         <f t="shared" si="8"/>
         <v>628</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2">
+        <v>733</v>
+      </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -1765,8 +1880,12 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -1817,8 +1936,12 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>99</v>
       </c>
@@ -1852,11 +1975,17 @@
       <c r="W15" s="2">
         <v>255</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2">
+        <v>306</v>
+      </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>100</v>
       </c>
@@ -1890,11 +2019,17 @@
       <c r="W16" s="2">
         <v>373</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <v>426</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -1934,15 +2069,19 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AE17" s="3">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AI17" s="3">
         <v>834</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AJ17" s="3">
         <f>SUM(O17:R17)</f>
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -1982,15 +2121,19 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AE18" s="3">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AI18" s="3">
         <v>1071.7760000000001</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AJ18" s="3">
         <f>SUM(O18:R18)</f>
         <v>1223</v>
       </c>
     </row>
-    <row r="19" spans="2:39" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:122" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2060,57 +2203,92 @@
         <v>1004</v>
       </c>
       <c r="Y19" s="5">
-        <f>+U19*1.5</f>
-        <v>1088.2739999999999</v>
+        <v>1181.0920000000001</v>
       </c>
       <c r="Z19" s="5">
-        <f>+V19*1.5</f>
-        <v>1241.2784999999999</v>
+        <f>+V19*1.66</f>
+        <v>1373.68154</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>+W19*1.7</f>
+        <v>1501.1</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>+X19*1.7</f>
+        <v>1706.8</v>
       </c>
       <c r="AC19" s="5">
+        <f>+Y19*1.7</f>
+        <v>2007.8564000000001</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>+Z19*1.7</f>
+        <v>2335.2586179999998</v>
+      </c>
+      <c r="AG19" s="5">
         <v>1092.673</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AH19" s="5">
         <v>1541.8889999999999</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AI19" s="5">
         <f>SUM(K19:N19)</f>
         <v>1905.8709999999999</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AJ19" s="5">
         <f>SUM(O19:R19)</f>
         <v>2224.6620000000003</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AK19" s="5">
         <f>SUM(S19:V19)</f>
         <v>2865.5069999999996</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AL19" s="5">
         <f>SUM(W19:Z19)</f>
-        <v>4216.5524999999998</v>
-      </c>
-      <c r="AI19" s="5">
-        <f>AH19*1.6</f>
-        <v>6746.4840000000004</v>
-      </c>
-      <c r="AJ19" s="5">
-        <f>AI19*1.5</f>
-        <v>10119.726000000001</v>
-      </c>
-      <c r="AK19" s="5">
-        <f>AJ19*1.4</f>
-        <v>14167.616400000001</v>
-      </c>
-      <c r="AL19" s="5">
-        <f>AK19*1.4</f>
-        <v>19834.662960000001</v>
+        <v>4441.7735400000001</v>
       </c>
       <c r="AM19" s="5">
-        <f>AL19*1.4</f>
-        <v>27768.528144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>AL19*1.6</f>
+        <v>7106.8376640000006</v>
+      </c>
+      <c r="AN19" s="5">
+        <f>AM19*1.5</f>
+        <v>10660.256496000002</v>
+      </c>
+      <c r="AO19" s="5">
+        <f>AN19*1.4</f>
+        <v>14924.359094400001</v>
+      </c>
+      <c r="AP19" s="5">
+        <f>AO19*1.35</f>
+        <v>20147.884777440002</v>
+      </c>
+      <c r="AQ19" s="5">
+        <f>AP19*1.3</f>
+        <v>26192.250210672002</v>
+      </c>
+      <c r="AR19" s="5">
+        <f>AQ19*1.25</f>
+        <v>32740.312763340004</v>
+      </c>
+      <c r="AS19" s="5">
+        <f>AR19*1.2</f>
+        <v>39288.375316008001</v>
+      </c>
+      <c r="AT19" s="5">
+        <f>AS19*1.2</f>
+        <v>47146.050379209599</v>
+      </c>
+      <c r="AU19" s="5">
+        <f>AT19*1.2</f>
+        <v>56575.260455051517</v>
+      </c>
+      <c r="AV19" s="5">
+        <f>AU19*1.2</f>
+        <v>67890.312546061818</v>
+      </c>
+    </row>
+    <row r="20" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
@@ -2186,95 +2364,113 @@
         <v>157.95400000000001</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" ref="X20:Z20" si="17">+X19-X21</f>
-        <v>170.68000000000006</v>
+        <v>192.934</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="17"/>
-        <v>185.00657999999999</v>
+        <v>207.30699999999999</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="17"/>
-        <v>211.01734499999998</v>
-      </c>
-      <c r="AC20" s="3">
+        <f t="shared" ref="Z20" si="17">+Z19-Z21</f>
+        <v>233.52586180000003</v>
+      </c>
+      <c r="AG20" s="3">
         <v>352.54700000000003</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AH20" s="3">
         <v>339.404</v>
       </c>
-      <c r="AE20" s="3">
-        <f>AE19-AE21</f>
+      <c r="AI20" s="3">
+        <f>AI19-AI21</f>
         <v>381.17419999999993</v>
       </c>
-      <c r="AF20" s="3">
-        <f t="shared" ref="AF20:AH20" si="18">AF19-AF21</f>
+      <c r="AJ20" s="3">
+        <f t="shared" ref="AJ20:AL20" si="18">AJ19-AJ21</f>
         <v>444.93239999999992</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AK20" s="3">
         <f>SUM(S20:V20)</f>
         <v>496.92500000000001</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AL20" s="3">
         <f t="shared" si="18"/>
-        <v>843.31049999999959</v>
-      </c>
-      <c r="AI20" s="3">
-        <f t="shared" ref="AI20" si="19">AI19-AI21</f>
-        <v>1349.2968000000001</v>
-      </c>
-      <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20" si="20">AJ19-AJ21</f>
-        <v>2023.9452000000001</v>
-      </c>
-      <c r="AK20" s="3">
-        <f t="shared" ref="AK20:AM20" si="21">AK19-AK21</f>
-        <v>2833.5232799999994</v>
-      </c>
-      <c r="AL20" s="3">
+        <v>888.35470799999985</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" ref="AM20" si="19">AM19-AM21</f>
+        <v>1421.3675327999999</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" ref="AN20" si="20">AN19-AN21</f>
+        <v>2132.0512992000004</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" ref="AO20:AQ20" si="21">AO19-AO21</f>
+        <v>2984.8718188799994</v>
+      </c>
+      <c r="AP20" s="3">
         <f t="shared" si="21"/>
-        <v>3966.9325919999992</v>
-      </c>
-      <c r="AM20" s="3">
+        <v>4029.5769554879989</v>
+      </c>
+      <c r="AQ20" s="3">
         <f t="shared" si="21"/>
-        <v>5553.7056287999985</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5238.4500421343982</v>
+      </c>
+      <c r="AR20" s="3">
+        <f t="shared" ref="AR20:AV20" si="22">AR19-AR21</f>
+        <v>6548.0625526679978</v>
+      </c>
+      <c r="AS20" s="3">
+        <f t="shared" si="22"/>
+        <v>7857.6750632015974</v>
+      </c>
+      <c r="AT20" s="3">
+        <f t="shared" si="22"/>
+        <v>9429.2100758419183</v>
+      </c>
+      <c r="AU20" s="3">
+        <f t="shared" si="22"/>
+        <v>11315.052091010301</v>
+      </c>
+      <c r="AV20" s="3">
+        <f t="shared" si="22"/>
+        <v>13578.062509212359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:K21" si="22">D19-D20</f>
+        <f t="shared" ref="D21:K21" si="23">D19-D20</f>
         <v>183.47900000000001</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>140.02599999999998</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>251.58800000000002</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>267.12299999999999</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>284.71600000000001</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>305.34199999999998</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>345.30400000000003</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>351.95400000000001</v>
       </c>
       <c r="L21" s="4">
@@ -2282,31 +2478,31 @@
         <v>370.786</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" ref="M21" si="23">M19*0.8</f>
+        <f t="shared" ref="M21" si="24">M19*0.8</f>
         <v>382.30400000000003</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:S21" si="24">+N19-N20</f>
+        <f t="shared" ref="N21:S21" si="25">+N19-N20</f>
         <v>404.31299999999999</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>426.71800000000007</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>434.42200000000003</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>458.05099999999999</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>510.36099999999999</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>528.49799999999993</v>
       </c>
       <c r="T21" s="3">
@@ -2326,63 +2522,83 @@
         <v>725.04600000000005</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" ref="X21:Z21" si="25">+X19*0.83</f>
-        <v>833.31999999999994</v>
+        <f>+X19-X20</f>
+        <v>811.06600000000003</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="25"/>
-        <v>903.2674199999999</v>
+        <f>+Y19-Y20</f>
+        <v>973.78500000000008</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="25"/>
-        <v>1030.2611549999999</v>
-      </c>
-      <c r="AC21" s="3">
-        <f>AC19-AC20</f>
+        <f t="shared" ref="Z21" si="26">+Z19*0.83</f>
+        <v>1140.1556782</v>
+      </c>
+      <c r="AG21" s="3">
+        <f>AG19-AG20</f>
         <v>740.12599999999998</v>
       </c>
-      <c r="AD21" s="3">
-        <f>AD19-AD20</f>
+      <c r="AH21" s="3">
+        <f>AH19-AH20</f>
         <v>1202.4849999999999</v>
       </c>
-      <c r="AE21" s="3">
-        <f>AE19*0.8</f>
+      <c r="AI21" s="3">
+        <f>AI19*0.8</f>
         <v>1524.6967999999999</v>
       </c>
-      <c r="AF21" s="3">
-        <f t="shared" ref="AF21:AH21" si="26">AF19*0.8</f>
+      <c r="AJ21" s="3">
+        <f t="shared" ref="AJ21:AL21" si="27">AJ19*0.8</f>
         <v>1779.7296000000003</v>
       </c>
-      <c r="AG21" s="3">
-        <f>+AG19-AG20</f>
+      <c r="AK21" s="3">
+        <f>+AK19-AK20</f>
         <v>2368.5819999999994</v>
       </c>
-      <c r="AH21" s="3">
-        <f t="shared" si="26"/>
-        <v>3373.2420000000002</v>
-      </c>
-      <c r="AI21" s="3">
-        <f t="shared" ref="AI21" si="27">AI19*0.8</f>
-        <v>5397.1872000000003</v>
-      </c>
-      <c r="AJ21" s="3">
-        <f t="shared" ref="AJ21:AK21" si="28">AJ19*0.8</f>
-        <v>8095.7808000000005</v>
-      </c>
-      <c r="AK21" s="3">
-        <f t="shared" si="28"/>
-        <v>11334.093120000001</v>
-      </c>
       <c r="AL21" s="3">
-        <f t="shared" ref="AL21:AM21" si="29">AL19*0.8</f>
-        <v>15867.730368000002</v>
+        <f t="shared" si="27"/>
+        <v>3553.4188320000003</v>
       </c>
       <c r="AM21" s="3">
+        <f t="shared" ref="AM21" si="28">AM19*0.8</f>
+        <v>5685.4701312000007</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" ref="AN21:AO21" si="29">AN19*0.8</f>
+        <v>8528.2051968000014</v>
+      </c>
+      <c r="AO21" s="3">
         <f t="shared" si="29"/>
-        <v>22214.822515200001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11939.487275520001</v>
+      </c>
+      <c r="AP21" s="3">
+        <f t="shared" ref="AP21:AQ21" si="30">AP19*0.8</f>
+        <v>16118.307821952003</v>
+      </c>
+      <c r="AQ21" s="3">
+        <f t="shared" si="30"/>
+        <v>20953.800168537604</v>
+      </c>
+      <c r="AR21" s="3">
+        <f t="shared" ref="AR21:AV21" si="31">AR19*0.8</f>
+        <v>26192.250210672006</v>
+      </c>
+      <c r="AS21" s="3">
+        <f t="shared" si="31"/>
+        <v>31430.700252806404</v>
+      </c>
+      <c r="AT21" s="3">
+        <f t="shared" si="31"/>
+        <v>37716.84030336768</v>
+      </c>
+      <c r="AU21" s="3">
+        <f t="shared" si="31"/>
+        <v>45260.208364041217</v>
+      </c>
+      <c r="AV21" s="3">
+        <f t="shared" si="31"/>
+        <v>54312.250036849458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2631,7 @@
         <v>168.875</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22" si="30">L22+1</f>
+        <f t="shared" ref="M22" si="32">L22+1</f>
         <v>169.875</v>
       </c>
       <c r="N22" s="4">
@@ -2458,61 +2674,79 @@
         <v>183.79599999999999</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:Z22" si="31">+T22*1.24</f>
-        <v>184.13380000000001</v>
+        <v>243.78800000000001</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="31"/>
-        <v>196.88223999999997</v>
+        <v>274.63600000000002</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="Z22" si="33">+V22*1.24</f>
         <v>236.02408000000003</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AG22" s="3">
         <v>683.70100000000002</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AH22" s="3">
         <v>614.51199999999994</v>
       </c>
-      <c r="AE22" s="3">
-        <f>AD22*1.1</f>
+      <c r="AI22" s="3">
+        <f>AH22*1.1</f>
         <v>675.96320000000003</v>
       </c>
-      <c r="AF22" s="3">
-        <f t="shared" ref="AF22:AH22" si="32">AE22*1.1</f>
+      <c r="AJ22" s="3">
+        <f t="shared" ref="AJ22:AL22" si="34">AI22*1.1</f>
         <v>743.55952000000013</v>
       </c>
-      <c r="AG22" s="3">
-        <f t="shared" ref="AG22:AG24" si="33">SUM(S22:V22)</f>
+      <c r="AK22" s="3">
+        <f t="shared" ref="AK22:AK24" si="35">SUM(S22:V22)</f>
         <v>648.6339999999999</v>
       </c>
-      <c r="AH22" s="3">
-        <f t="shared" si="32"/>
+      <c r="AL22" s="3">
+        <f t="shared" si="34"/>
         <v>713.49739999999997</v>
       </c>
-      <c r="AI22" s="3">
-        <f t="shared" ref="AI22" si="34">AH22*1.1</f>
+      <c r="AM22" s="3">
+        <f t="shared" ref="AM22" si="36">AL22*1.1</f>
         <v>784.84714000000008</v>
       </c>
-      <c r="AJ22" s="3">
-        <f t="shared" ref="AJ22:AK22" si="35">AI22*1.1</f>
+      <c r="AN22" s="3">
+        <f t="shared" ref="AN22:AO22" si="37">AM22*1.1</f>
         <v>863.33185400000013</v>
       </c>
-      <c r="AK22" s="3">
-        <f t="shared" si="35"/>
+      <c r="AO22" s="3">
+        <f t="shared" si="37"/>
         <v>949.66503940000018</v>
       </c>
-      <c r="AL22" s="3">
-        <f t="shared" ref="AL22:AL24" si="36">AK22*1.1</f>
+      <c r="AP22" s="3">
+        <f t="shared" ref="AP22:AP24" si="38">AO22*1.1</f>
         <v>1044.6315433400002</v>
       </c>
-      <c r="AM22" s="3">
-        <f t="shared" ref="AM22:AM24" si="37">AL22*1.1</f>
+      <c r="AQ22" s="3">
+        <f t="shared" ref="AQ22:AQ24" si="39">AP22*1.1</f>
         <v>1149.0946976740004</v>
       </c>
-    </row>
-    <row r="23" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR22" s="3">
+        <f t="shared" ref="AR22:AR24" si="40">AQ22*1.1</f>
+        <v>1264.0041674414006</v>
+      </c>
+      <c r="AS22" s="3">
+        <f t="shared" ref="AS22:AS24" si="41">AR22*1.1</f>
+        <v>1390.4045841855407</v>
+      </c>
+      <c r="AT22" s="3">
+        <f t="shared" ref="AT22:AT24" si="42">AS22*1.1</f>
+        <v>1529.4450426040949</v>
+      </c>
+      <c r="AU22" s="3">
+        <f t="shared" ref="AU22:AU24" si="43">AT22*1.1</f>
+        <v>1682.3895468645044</v>
+      </c>
+      <c r="AV22" s="3">
+        <f t="shared" ref="AV22:AV24" si="44">AU22*1.1</f>
+        <v>1850.628501550955</v>
+      </c>
+    </row>
+    <row r="23" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2779,7 @@
         <v>88.171000000000006</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" ref="M23" si="38">L23+1</f>
+        <f t="shared" ref="M23" si="45">L23+1</f>
         <v>89.171000000000006</v>
       </c>
       <c r="N23" s="4">
@@ -2588,61 +2822,79 @@
         <v>103.05500000000001</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" ref="X23:Z23" si="39">+T23*1.2</f>
-        <v>94.60560000000001</v>
+        <v>135.04300000000001</v>
       </c>
       <c r="Y23" s="3">
+        <v>144.191</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" ref="Z23" si="46">+V23*1.2</f>
+        <v>112.76280000000001</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>560.66</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>387.48700000000002</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" ref="AI23:AL23" si="47">AH23*1.1</f>
+        <v>426.23570000000007</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="47"/>
+        <v>468.85927000000009</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="35"/>
+        <v>342.81300000000005</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="47"/>
+        <v>377.09430000000009</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" ref="AM23" si="48">AL23*1.1</f>
+        <v>414.80373000000014</v>
+      </c>
+      <c r="AN23" s="3">
+        <f t="shared" ref="AN23:AO23" si="49">AM23*1.1</f>
+        <v>456.28410300000019</v>
+      </c>
+      <c r="AO23" s="3">
+        <f t="shared" si="49"/>
+        <v>501.91251330000023</v>
+      </c>
+      <c r="AP23" s="3">
+        <f t="shared" si="38"/>
+        <v>552.10376463000034</v>
+      </c>
+      <c r="AQ23" s="3">
         <f t="shared" si="39"/>
-        <v>104.208</v>
-      </c>
-      <c r="Z23" s="3">
-        <f t="shared" si="39"/>
-        <v>112.76280000000001</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>560.66</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>387.48700000000002</v>
-      </c>
-      <c r="AE23" s="3">
-        <f t="shared" ref="AE23:AH23" si="40">AD23*1.1</f>
-        <v>426.23570000000007</v>
-      </c>
-      <c r="AF23" s="3">
+        <v>607.31414109300044</v>
+      </c>
+      <c r="AR23" s="3">
         <f t="shared" si="40"/>
-        <v>468.85927000000009</v>
-      </c>
-      <c r="AG23" s="3">
-        <f t="shared" si="33"/>
-        <v>342.81300000000005</v>
-      </c>
-      <c r="AH23" s="3">
-        <f t="shared" si="40"/>
-        <v>377.09430000000009</v>
-      </c>
-      <c r="AI23" s="3">
-        <f t="shared" ref="AI23" si="41">AH23*1.1</f>
-        <v>414.80373000000014</v>
-      </c>
-      <c r="AJ23" s="3">
-        <f t="shared" ref="AJ23:AK23" si="42">AI23*1.1</f>
-        <v>456.28410300000019</v>
-      </c>
-      <c r="AK23" s="3">
+        <v>668.04555520230053</v>
+      </c>
+      <c r="AS23" s="3">
+        <f t="shared" si="41"/>
+        <v>734.85011072253064</v>
+      </c>
+      <c r="AT23" s="3">
         <f t="shared" si="42"/>
-        <v>501.91251330000023</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="36"/>
-        <v>552.10376463000034</v>
-      </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="37"/>
-        <v>607.31414109300044</v>
-      </c>
-    </row>
-    <row r="24" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>808.33512179478373</v>
+      </c>
+      <c r="AU23" s="3">
+        <f t="shared" si="43"/>
+        <v>889.16863397426221</v>
+      </c>
+      <c r="AV23" s="3">
+        <f t="shared" si="44"/>
+        <v>978.08549737168846</v>
+      </c>
+    </row>
+    <row r="24" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2927,7 @@
         <v>155.48500000000001</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24" si="43">L24+1</f>
+        <f t="shared" ref="M24" si="50">L24+1</f>
         <v>156.48500000000001</v>
       </c>
       <c r="N24" s="4">
@@ -2718,345 +2970,411 @@
         <v>107.66300000000001</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" ref="X24:Z24" si="44">+T24*1.3</f>
-        <v>178.79940000000002</v>
+        <v>162.61500000000001</v>
       </c>
       <c r="Y24" s="3">
+        <v>161.702</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" ref="Z24" si="51">+V24*1.3</f>
+        <v>141.6454</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>669.44399999999996</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>611.53200000000004</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" ref="AI24:AL24" si="52">AH24*1.1</f>
+        <v>672.68520000000012</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="52"/>
+        <v>739.9537200000002</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="35"/>
+        <v>425.09399999999994</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="52"/>
+        <v>467.60339999999997</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" ref="AM24" si="53">AL24*1.1</f>
+        <v>514.36374000000001</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" ref="AN24:AO24" si="54">AM24*1.1</f>
+        <v>565.80011400000001</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="54"/>
+        <v>622.38012540000011</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="38"/>
+        <v>684.61813794000022</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="39"/>
+        <v>753.07995173400036</v>
+      </c>
+      <c r="AR24" s="3">
+        <f t="shared" si="40"/>
+        <v>828.38794690740042</v>
+      </c>
+      <c r="AS24" s="3">
+        <f t="shared" si="41"/>
+        <v>911.22674159814051</v>
+      </c>
+      <c r="AT24" s="3">
+        <f t="shared" si="42"/>
+        <v>1002.3494157579546</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="43"/>
+        <v>1102.5843573337502</v>
+      </c>
+      <c r="AV24" s="3">
         <f t="shared" si="44"/>
-        <v>118.06469999999999</v>
-      </c>
-      <c r="Z24" s="3">
-        <f t="shared" si="44"/>
-        <v>141.6454</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>669.44399999999996</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>611.53200000000004</v>
-      </c>
-      <c r="AE24" s="3">
-        <f t="shared" ref="AE24:AH24" si="45">AD24*1.1</f>
-        <v>672.68520000000012</v>
-      </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="45"/>
-        <v>739.9537200000002</v>
-      </c>
-      <c r="AG24" s="3">
-        <f t="shared" si="33"/>
-        <v>425.09399999999994</v>
-      </c>
-      <c r="AH24" s="3">
-        <f t="shared" si="45"/>
-        <v>467.60339999999997</v>
-      </c>
-      <c r="AI24" s="3">
-        <f t="shared" ref="AI24" si="46">AH24*1.1</f>
-        <v>514.36374000000001</v>
-      </c>
-      <c r="AJ24" s="3">
-        <f t="shared" ref="AJ24:AK24" si="47">AI24*1.1</f>
-        <v>565.80011400000001</v>
-      </c>
-      <c r="AK24" s="3">
-        <f t="shared" si="47"/>
-        <v>622.38012540000011</v>
-      </c>
-      <c r="AL24" s="3">
-        <f t="shared" si="36"/>
-        <v>684.61813794000022</v>
-      </c>
-      <c r="AM24" s="3">
-        <f t="shared" si="37"/>
-        <v>753.07995173400036</v>
-      </c>
-    </row>
-    <row r="25" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1212.8427930671253</v>
+      </c>
+    </row>
+    <row r="25" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:L25" si="48">SUM(D22:D24)</f>
+        <f t="shared" ref="D25:L25" si="55">SUM(D22:D24)</f>
         <v>282.62400000000002</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>987.803</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>408.15999999999997</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>381.137</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>430.86400000000003</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>397.28300000000002</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>404.24700000000001</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>391.39300000000003</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>412.53100000000001</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" ref="M25:N25" si="49">SUM(M22:M24)</f>
+        <f t="shared" ref="M25:N25" si="56">SUM(M22:M24)</f>
         <v>415.53100000000001</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>422.13900000000001</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" ref="O25:W25" si="50">+O22+O23+O24</f>
+        <f t="shared" ref="O25:W25" si="57">+O22+O23+O24</f>
         <v>307.88900000000001</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>310.14700000000005</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>303.68799999999999</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>312.30900000000003</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>321.96600000000001</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>364.87100000000004</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>336.43499999999995</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>393.26900000000001</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>394.51400000000001</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" ref="X25:Z25" si="51">+X22+X23+X24</f>
-        <v>457.53880000000004</v>
+        <f t="shared" ref="X25:Z25" si="58">+X22+X23+X24</f>
+        <v>541.44600000000003</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="51"/>
-        <v>419.15494000000001</v>
+        <f t="shared" si="58"/>
+        <v>580.529</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>490.43228000000005</v>
       </c>
-      <c r="AC25" s="3">
-        <f>SUM(AC22:AC24)</f>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AG25" s="3">
+        <f>SUM(AG22:AG24)</f>
         <v>1913.8049999999998</v>
       </c>
-      <c r="AD25" s="3">
-        <f t="shared" ref="AD25" si="52">SUM(AD22:AD24)</f>
+      <c r="AH25" s="3">
+        <f t="shared" ref="AH25" si="59">SUM(AH22:AH24)</f>
         <v>1613.5309999999999</v>
       </c>
-      <c r="AE25" s="3">
-        <f t="shared" ref="AE25" si="53">SUM(AE22:AE24)</f>
+      <c r="AI25" s="3">
+        <f t="shared" ref="AI25" si="60">SUM(AI22:AI24)</f>
         <v>1774.8841000000002</v>
       </c>
-      <c r="AF25" s="3">
-        <f t="shared" ref="AF25" si="54">SUM(AF22:AF24)</f>
+      <c r="AJ25" s="3">
+        <f t="shared" ref="AJ25" si="61">SUM(AJ22:AJ24)</f>
         <v>1952.3725100000004</v>
       </c>
-      <c r="AG25" s="3">
-        <f t="shared" ref="AG25" si="55">SUM(AG22:AG24)</f>
+      <c r="AK25" s="3">
+        <f t="shared" ref="AK25" si="62">SUM(AK22:AK24)</f>
         <v>1416.5409999999997</v>
       </c>
-      <c r="AH25" s="3">
-        <f t="shared" ref="AH25" si="56">SUM(AH22:AH24)</f>
+      <c r="AL25" s="3">
+        <f t="shared" ref="AL25" si="63">SUM(AL22:AL24)</f>
         <v>1558.1950999999999</v>
       </c>
-      <c r="AI25" s="3">
-        <f t="shared" ref="AI25" si="57">SUM(AI22:AI24)</f>
+      <c r="AM25" s="3">
+        <f t="shared" ref="AM25" si="64">SUM(AM22:AM24)</f>
         <v>1714.0146100000002</v>
       </c>
-      <c r="AJ25" s="3">
-        <f t="shared" ref="AJ25" si="58">SUM(AJ22:AJ24)</f>
+      <c r="AN25" s="3">
+        <f t="shared" ref="AN25" si="65">SUM(AN22:AN24)</f>
         <v>1885.4160710000006</v>
       </c>
-      <c r="AK25" s="3">
-        <f t="shared" ref="AK25:AM25" si="59">SUM(AK22:AK24)</f>
+      <c r="AO25" s="3">
+        <f t="shared" ref="AO25:AQ25" si="66">SUM(AO22:AO24)</f>
         <v>2073.9576781000005</v>
       </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="59"/>
+      <c r="AP25" s="3">
+        <f t="shared" si="66"/>
         <v>2281.353445910001</v>
       </c>
-      <c r="AM25" s="3">
-        <f t="shared" si="59"/>
+      <c r="AQ25" s="3">
+        <f t="shared" si="66"/>
         <v>2509.4887905010009</v>
       </c>
-    </row>
-    <row r="26" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR25" s="3">
+        <f t="shared" ref="AR25:AV25" si="67">SUM(AR22:AR24)</f>
+        <v>2760.4376695511014</v>
+      </c>
+      <c r="AS25" s="3">
+        <f t="shared" si="67"/>
+        <v>3036.481436506212</v>
+      </c>
+      <c r="AT25" s="3">
+        <f t="shared" si="67"/>
+        <v>3340.1295801568331</v>
+      </c>
+      <c r="AU25" s="3">
+        <f t="shared" si="67"/>
+        <v>3674.1425381725167</v>
+      </c>
+      <c r="AV25" s="3">
+        <f t="shared" si="67"/>
+        <v>4041.5567919897685</v>
+      </c>
+    </row>
+    <row r="26" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <f t="shared" ref="D26:L26" si="60">D21-D25</f>
+        <f t="shared" ref="D26:L26" si="68">D21-D25</f>
         <v>-99.14500000000001</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-847.77700000000004</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-156.57199999999995</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-114.01400000000001</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-146.14800000000002</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-91.941000000000031</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-58.942999999999984</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-39.439000000000021</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-41.745000000000005</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26:N26" si="61">M21-M25</f>
+        <f t="shared" ref="M26:N26" si="69">M21-M25</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-17.826000000000022</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" ref="O26:W26" si="62">+O21-O25</f>
+        <f t="shared" ref="O26:W26" si="70">+O21-O25</f>
         <v>118.82900000000006</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>124.27499999999998</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>154.363</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>198.05199999999996</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>206.53199999999993</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>197.10300000000001</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>255.56500000000005</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>292.84100000000001</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>330.53200000000004</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26:Z26" si="63">+X21-X25</f>
-        <v>375.7811999999999</v>
+        <f t="shared" ref="X26:Z26" si="71">+X21-X25</f>
+        <v>269.62</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="63"/>
-        <v>484.11247999999989</v>
+        <f t="shared" si="71"/>
+        <v>393.25600000000009</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="63"/>
-        <v>539.82887499999993</v>
-      </c>
-      <c r="AC26" s="3">
-        <f>AC21-AC25</f>
+        <f t="shared" si="71"/>
+        <v>649.72339820000002</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AG26" s="3">
+        <f>AG21-AG25</f>
         <v>-1173.6789999999999</v>
       </c>
-      <c r="AD26" s="3">
-        <f t="shared" ref="AD26" si="64">AD21-AD25</f>
+      <c r="AH26" s="3">
+        <f t="shared" ref="AH26" si="72">AH21-AH25</f>
         <v>-411.04600000000005</v>
       </c>
-      <c r="AE26" s="3">
-        <f t="shared" ref="AE26" si="65">AE21-AE25</f>
+      <c r="AI26" s="3">
+        <f t="shared" ref="AI26" si="73">AI21-AI25</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AF26" s="3">
-        <f t="shared" ref="AF26" si="66">AF21-AF25</f>
+      <c r="AJ26" s="3">
+        <f t="shared" ref="AJ26" si="74">AJ21-AJ25</f>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AG26" s="3">
-        <f t="shared" ref="AG26" si="67">AG21-AG25</f>
+      <c r="AK26" s="3">
+        <f t="shared" ref="AK26" si="75">AK21-AK25</f>
         <v>952.04099999999971</v>
       </c>
-      <c r="AH26" s="3">
-        <f t="shared" ref="AH26" si="68">AH21-AH25</f>
-        <v>1815.0469000000003</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" ref="AI26" si="69">AI21-AI25</f>
-        <v>3683.1725900000001</v>
-      </c>
-      <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26" si="70">AJ21-AJ25</f>
-        <v>6210.3647289999999</v>
-      </c>
-      <c r="AK26" s="3">
-        <f t="shared" ref="AK26:AM26" si="71">AK21-AK25</f>
-        <v>9260.1354419000018</v>
-      </c>
       <c r="AL26" s="3">
-        <f t="shared" si="71"/>
-        <v>13586.376922090001</v>
+        <f t="shared" ref="AL26" si="76">AL21-AL25</f>
+        <v>1995.2237320000004</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="71"/>
-        <v>19705.333724699001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM26" si="77">AM21-AM25</f>
+        <v>3971.4555212000005</v>
+      </c>
+      <c r="AN26" s="3">
+        <f t="shared" ref="AN26" si="78">AN21-AN25</f>
+        <v>6642.7891258000009</v>
+      </c>
+      <c r="AO26" s="3">
+        <f t="shared" ref="AO26:AQ26" si="79">AO21-AO25</f>
+        <v>9865.5295974200017</v>
+      </c>
+      <c r="AP26" s="3">
+        <f t="shared" si="79"/>
+        <v>13836.954376042002</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f t="shared" si="79"/>
+        <v>18444.311378036604</v>
+      </c>
+      <c r="AR26" s="3">
+        <f t="shared" ref="AR26:AV26" si="80">AR21-AR25</f>
+        <v>23431.812541120904</v>
+      </c>
+      <c r="AS26" s="3">
+        <f t="shared" si="80"/>
+        <v>28394.218816300192</v>
+      </c>
+      <c r="AT26" s="3">
+        <f t="shared" si="80"/>
+        <v>34376.710723210846</v>
+      </c>
+      <c r="AU26" s="3">
+        <f t="shared" si="80"/>
+        <v>41586.065825868704</v>
+      </c>
+      <c r="AV26" s="3">
+        <f t="shared" si="80"/>
+        <v>50270.693244859693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3139,38 +3457,23 @@
         <v>50.441000000000003</v>
       </c>
       <c r="X27" s="3">
-        <f>+W27</f>
-        <v>50.441000000000003</v>
+        <v>56.255000000000003</v>
       </c>
       <c r="Y27" s="3">
-        <f>+X27</f>
-        <v>50.441000000000003</v>
+        <v>59.762</v>
       </c>
       <c r="Z27" s="3">
         <f>+Y27</f>
-        <v>50.441000000000003</v>
-      </c>
-      <c r="AC27" s="3">
+        <v>59.762</v>
+      </c>
+      <c r="AG27" s="3">
         <f>4.68-14.139</f>
         <v>-9.4589999999999996</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AH27" s="3">
         <f>1.607-3.64</f>
         <v>-2.0330000000000004</v>
       </c>
-      <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="72">SUM(S27:V27)</f>
-        <v>164.00200000000001</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
       <c r="AI27" s="3">
         <v>0</v>
       </c>
@@ -3178,158 +3481,221 @@
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <v>0</v>
+        <f t="shared" ref="AK27" si="81">SUM(S27:V27)</f>
+        <v>164.00200000000001</v>
       </c>
       <c r="AL27" s="3">
-        <v>0</v>
+        <f>+AK41*$AY$39</f>
+        <v>522.99869999999999</v>
       </c>
       <c r="AM27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM27:AV27" si="82">+AL41*$AY$39</f>
+        <v>749.63871888000006</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="82"/>
+        <v>1174.5372004872002</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" si="82"/>
+        <v>1878.0965698530483</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="82"/>
+        <v>2935.0229249076228</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="82"/>
+        <v>4444.500881993089</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="82"/>
+        <v>6504.4939853957612</v>
+      </c>
+      <c r="AS27" s="3">
+        <f t="shared" si="82"/>
+        <v>9198.7615727822613</v>
+      </c>
+      <c r="AT27" s="3">
+        <f t="shared" si="82"/>
+        <v>12582.129807799683</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" si="82"/>
+        <v>16808.42545559063</v>
+      </c>
+      <c r="AV27" s="3">
+        <f t="shared" si="82"/>
+        <v>22063.929670921971</v>
+      </c>
+    </row>
+    <row r="28" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:L28" si="73">D26-D27</f>
+        <f t="shared" ref="D28:L28" si="83">D26-D27</f>
         <v>-94.050000000000011</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-846.18600000000004</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-155.12599999999995</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-112.55000000000001</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-145.93000000000004</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-91.711000000000027</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-58.821999999999981</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-39.392000000000024</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-42.547000000000004</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28" si="74">M26-M27</f>
+        <f t="shared" ref="M28" si="84">M26-M27</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28:Z28" si="75">+N26+N27</f>
+        <f t="shared" ref="N28:Z28" si="85">+N26+N27</f>
         <v>37.848999999999975</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>135.54600000000008</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>144.24399999999997</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>194.34899999999999</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>238.50499999999997</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>236.37699999999992</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28" si="76">+T26+T27</f>
+        <f t="shared" ref="T28" si="86">+T26+T27</f>
         <v>232.52300000000002</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>299.57500000000005</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>347.56799999999998</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>380.97300000000007</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="75"/>
-        <v>426.22219999999993</v>
+        <f t="shared" si="85"/>
+        <v>325.875</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" si="75"/>
-        <v>534.55347999999992</v>
+        <f t="shared" si="85"/>
+        <v>453.01800000000009</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="75"/>
-        <v>590.26987499999996</v>
-      </c>
-      <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AH28" si="77">AC26+AC27</f>
+        <f t="shared" si="85"/>
+        <v>709.48539819999996</v>
+      </c>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AG28" s="3">
+        <f t="shared" ref="AG28:AL28" si="87">AG26+AG27</f>
         <v>-1183.1379999999999</v>
       </c>
-      <c r="AD28" s="3">
-        <f t="shared" si="77"/>
+      <c r="AH28" s="3">
+        <f t="shared" si="87"/>
         <v>-413.07900000000006</v>
       </c>
-      <c r="AE28" s="3">
-        <f t="shared" si="77"/>
+      <c r="AI28" s="3">
+        <f t="shared" si="87"/>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="77"/>
+      <c r="AJ28" s="3">
+        <f t="shared" si="87"/>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AG28" s="3">
-        <f t="shared" si="77"/>
+      <c r="AK28" s="3">
+        <f t="shared" si="87"/>
         <v>1116.0429999999997</v>
       </c>
-      <c r="AH28" s="3">
-        <f t="shared" si="77"/>
-        <v>1815.0469000000003</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" ref="AI28" si="78">AI26+AI27</f>
-        <v>3683.1725900000001</v>
-      </c>
-      <c r="AJ28" s="3">
-        <f t="shared" ref="AJ28" si="79">AJ26+AJ27</f>
-        <v>6210.3647289999999</v>
-      </c>
-      <c r="AK28" s="3">
-        <f t="shared" ref="AK28:AM28" si="80">AK26+AK27</f>
-        <v>9260.1354419000018</v>
-      </c>
       <c r="AL28" s="3">
-        <f t="shared" si="80"/>
-        <v>13586.376922090001</v>
+        <f t="shared" si="87"/>
+        <v>2518.2224320000005</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="80"/>
-        <v>19705.333724699001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM28" si="88">AM26+AM27</f>
+        <v>4721.0942400800004</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" ref="AN28" si="89">AN26+AN27</f>
+        <v>7817.3263262872006</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" ref="AO28:AQ28" si="90">AO26+AO27</f>
+        <v>11743.626167273051</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" si="90"/>
+        <v>16771.977300949624</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f t="shared" si="90"/>
+        <v>22888.812260029692</v>
+      </c>
+      <c r="AR28" s="3">
+        <f t="shared" ref="AR28:AV28" si="91">AR26+AR27</f>
+        <v>29936.306526516666</v>
+      </c>
+      <c r="AS28" s="3">
+        <f t="shared" si="91"/>
+        <v>37592.980389082455</v>
+      </c>
+      <c r="AT28" s="3">
+        <f t="shared" si="91"/>
+        <v>46958.84053101053</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="91"/>
+        <v>58394.491281459334</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="91"/>
+        <v>72334.622915781656</v>
+      </c>
+    </row>
+    <row r="29" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3404,105 +3770,123 @@
         <v>5.5990000000000002</v>
       </c>
       <c r="X29" s="3">
-        <f>+X28*0.05</f>
-        <v>21.311109999999999</v>
+        <v>3.5960000000000001</v>
       </c>
       <c r="Y29" s="3">
-        <f>+Y28*0.05</f>
-        <v>26.727673999999997</v>
+        <v>3.7530000000000001</v>
       </c>
       <c r="Z29" s="3">
         <f>+Z28*0.05</f>
-        <v>29.513493749999999</v>
-      </c>
-      <c r="AC29" s="3">
+        <v>35.474269909999997</v>
+      </c>
+      <c r="AG29" s="3">
         <v>-12.635999999999999</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AH29" s="3">
         <v>31.885000000000002</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AI29" s="3">
         <v>0</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AJ29" s="3">
         <v>0</v>
       </c>
-      <c r="AG29" s="3">
-        <f t="shared" ref="AG29" si="81">SUM(S29:V29)</f>
+      <c r="AK29" s="3">
+        <f t="shared" ref="AK29" si="92">SUM(S29:V29)</f>
         <v>29.056000000000001</v>
       </c>
-      <c r="AH29" s="3">
-        <f>AH28*0.1</f>
-        <v>181.50469000000004</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" ref="AI29" si="82">AI28*0.1</f>
-        <v>368.31725900000004</v>
-      </c>
-      <c r="AJ29" s="3">
-        <f t="shared" ref="AJ29" si="83">AJ28*0.1</f>
-        <v>621.03647290000004</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" ref="AK29:AM29" si="84">AK28*0.1</f>
-        <v>926.01354419000018</v>
-      </c>
       <c r="AL29" s="3">
-        <f t="shared" si="84"/>
-        <v>1358.6376922090003</v>
+        <f>AL28*0.1</f>
+        <v>251.82224320000006</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="84"/>
-        <v>1970.5333724699003</v>
-      </c>
-    </row>
-    <row r="30" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM29" si="93">AM28*0.1</f>
+        <v>472.10942400800008</v>
+      </c>
+      <c r="AN29" s="3">
+        <f t="shared" ref="AN29" si="94">AN28*0.1</f>
+        <v>781.73263262872013</v>
+      </c>
+      <c r="AO29" s="3">
+        <f t="shared" ref="AO29:AQ29" si="95">AO28*0.1</f>
+        <v>1174.3626167273051</v>
+      </c>
+      <c r="AP29" s="3">
+        <f t="shared" si="95"/>
+        <v>1677.1977300949625</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" si="95"/>
+        <v>2288.8812260029695</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" ref="AR29:AV29" si="96">AR28*0.1</f>
+        <v>2993.6306526516669</v>
+      </c>
+      <c r="AS29" s="3">
+        <f t="shared" si="96"/>
+        <v>3759.2980389082459</v>
+      </c>
+      <c r="AT29" s="3">
+        <f t="shared" si="96"/>
+        <v>4695.8840531010528</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="96"/>
+        <v>5839.4491281459341</v>
+      </c>
+      <c r="AV29" s="3">
+        <f t="shared" si="96"/>
+        <v>7233.4622915781656</v>
+      </c>
+    </row>
+    <row r="30" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:L30" si="85">D28-D29</f>
+        <f t="shared" ref="D30:L30" si="97">D28-D29</f>
         <v>-94.993000000000009</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-837.64300000000003</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-147.53299999999996</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-115.65200000000002</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-140.26900000000003</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-93.149000000000029</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-91.827999999999975</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-41.415000000000028</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>-45.135000000000005</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30:N30" si="86">M28-M29</f>
+        <f t="shared" ref="M30:N30" si="98">M28-M29</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>30.877999999999975</v>
       </c>
       <c r="O30" s="4">
@@ -3526,124 +3910,440 @@
         <v>231.18099999999993</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:W30" si="87">+T28-T29</f>
+        <f t="shared" ref="T30:W30" si="99">+T28-T29</f>
         <v>225.89000000000001</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>285.95000000000005</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>343.96600000000001</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>375.37400000000008</v>
       </c>
       <c r="X30" s="3">
         <f>+X28-X29</f>
-        <v>404.91108999999994</v>
+        <v>322.279</v>
       </c>
       <c r="Y30" s="3">
         <f>+Y28-Y29</f>
-        <v>507.82580599999994</v>
+        <v>449.2650000000001</v>
       </c>
       <c r="Z30" s="3">
         <f>+Z28-Z29</f>
-        <v>560.75638125</v>
-      </c>
-      <c r="AC30" s="3">
-        <f>AC28-AC29</f>
+        <v>674.01112828999999</v>
+      </c>
+      <c r="AG30" s="3">
+        <f>AG28-AG29</f>
         <v>-1170.502</v>
       </c>
-      <c r="AD30" s="3">
-        <f>AD28-AD29</f>
+      <c r="AH30" s="3">
+        <f>AH28-AH29</f>
         <v>-444.96400000000006</v>
       </c>
-      <c r="AE30" s="3">
-        <f t="shared" ref="AE30:AH30" si="88">AE28-AE29</f>
+      <c r="AI30" s="3">
+        <f t="shared" ref="AI30:AL30" si="100">AI28-AI29</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AF30" s="3">
-        <f t="shared" si="88"/>
+      <c r="AJ30" s="3">
+        <f t="shared" si="100"/>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AG30" s="3">
-        <f t="shared" si="88"/>
+      <c r="AK30" s="3">
+        <f t="shared" si="100"/>
         <v>1086.9869999999996</v>
       </c>
-      <c r="AH30" s="3">
-        <f t="shared" si="88"/>
-        <v>1633.5422100000003</v>
-      </c>
-      <c r="AI30" s="3">
-        <f t="shared" ref="AI30" si="89">AI28-AI29</f>
-        <v>3314.8553310000002</v>
-      </c>
-      <c r="AJ30" s="3">
-        <f t="shared" ref="AJ30" si="90">AJ28-AJ29</f>
-        <v>5589.3282560999996</v>
-      </c>
-      <c r="AK30" s="3">
-        <f t="shared" ref="AK30:AM30" si="91">AK28-AK29</f>
-        <v>8334.1218977100016</v>
-      </c>
       <c r="AL30" s="3">
-        <f t="shared" si="91"/>
-        <v>12227.739229881001</v>
+        <f t="shared" si="100"/>
+        <v>2266.4001888000003</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="91"/>
-        <v>17734.8003522291</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM30" si="101">AM28-AM29</f>
+        <v>4248.9848160720003</v>
+      </c>
+      <c r="AN30" s="3">
+        <f t="shared" ref="AN30" si="102">AN28-AN29</f>
+        <v>7035.5936936584803</v>
+      </c>
+      <c r="AO30" s="3">
+        <f t="shared" ref="AO30:AQ30" si="103">AO28-AO29</f>
+        <v>10569.263550545746</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" si="103"/>
+        <v>15094.779570854662</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f t="shared" si="103"/>
+        <v>20599.931034026722</v>
+      </c>
+      <c r="AR30" s="3">
+        <f t="shared" ref="AR30:AV30" si="104">AR28-AR29</f>
+        <v>26942.675873864999</v>
+      </c>
+      <c r="AS30" s="3">
+        <f t="shared" si="104"/>
+        <v>33833.682350174211</v>
+      </c>
+      <c r="AT30" s="3">
+        <f t="shared" si="104"/>
+        <v>42262.95647790948</v>
+      </c>
+      <c r="AU30" s="3">
+        <f t="shared" si="104"/>
+        <v>52555.042153313399</v>
+      </c>
+      <c r="AV30" s="3">
+        <f t="shared" si="104"/>
+        <v>65101.16062420349</v>
+      </c>
+      <c r="AW30" s="3">
+        <f>+AV30*(1+$AY$35)</f>
+        <v>66403.18383668756</v>
+      </c>
+      <c r="AX30" s="3">
+        <f>+AW30*(1+$AY$35)</f>
+        <v>67731.247513421316</v>
+      </c>
+      <c r="AY30" s="3">
+        <f>+AX30*(1+$AY$35)</f>
+        <v>69085.872463689739</v>
+      </c>
+      <c r="AZ30" s="3">
+        <f>+AY30*(1+$AY$35)</f>
+        <v>70467.589912963536</v>
+      </c>
+      <c r="BA30" s="3">
+        <f>+AZ30*(1+$AY$35)</f>
+        <v>71876.941711222811</v>
+      </c>
+      <c r="BB30" s="3">
+        <f>+BA30*(1+$AY$35)</f>
+        <v>73314.480545447266</v>
+      </c>
+      <c r="BC30" s="3">
+        <f>+BB30*(1+$AY$35)</f>
+        <v>74780.770156356215</v>
+      </c>
+      <c r="BD30" s="3">
+        <f>+BC30*(1+$AY$35)</f>
+        <v>76276.385559483344</v>
+      </c>
+      <c r="BE30" s="3">
+        <f>+BD30*(1+$AY$35)</f>
+        <v>77801.913270673016</v>
+      </c>
+      <c r="BF30" s="3">
+        <f>+BE30*(1+$AY$35)</f>
+        <v>79357.951536086475</v>
+      </c>
+      <c r="BG30" s="3">
+        <f>+BF30*(1+$AY$35)</f>
+        <v>80945.110566808202</v>
+      </c>
+      <c r="BH30" s="3">
+        <f>+BG30*(1+$AY$35)</f>
+        <v>82564.012778144373</v>
+      </c>
+      <c r="BI30" s="3">
+        <f>+BH30*(1+$AY$35)</f>
+        <v>84215.293033707261</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f>+BI30*(1+$AY$35)</f>
+        <v>85899.598894381401</v>
+      </c>
+      <c r="BK30" s="3">
+        <f>+BJ30*(1+$AY$35)</f>
+        <v>87617.590872269036</v>
+      </c>
+      <c r="BL30" s="3">
+        <f>+BK30*(1+$AY$35)</f>
+        <v>89369.942689714415</v>
+      </c>
+      <c r="BM30" s="3">
+        <f>+BL30*(1+$AY$35)</f>
+        <v>91157.341543508708</v>
+      </c>
+      <c r="BN30" s="3">
+        <f>+BM30*(1+$AY$35)</f>
+        <v>92980.488374378881</v>
+      </c>
+      <c r="BO30" s="3">
+        <f>+BN30*(1+$AY$35)</f>
+        <v>94840.09814186646</v>
+      </c>
+      <c r="BP30" s="3">
+        <f>+BO30*(1+$AY$35)</f>
+        <v>96736.900104703789</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f>+BP30*(1+$AY$35)</f>
+        <v>98671.638106797865</v>
+      </c>
+      <c r="BR30" s="3">
+        <f>+BQ30*(1+$AY$35)</f>
+        <v>100645.07086893382</v>
+      </c>
+      <c r="BS30" s="3">
+        <f>+BR30*(1+$AY$35)</f>
+        <v>102657.97228631251</v>
+      </c>
+      <c r="BT30" s="3">
+        <f>+BS30*(1+$AY$35)</f>
+        <v>104711.13173203876</v>
+      </c>
+      <c r="BU30" s="3">
+        <f>+BT30*(1+$AY$35)</f>
+        <v>106805.35436667954</v>
+      </c>
+      <c r="BV30" s="3">
+        <f>+BU30*(1+$AY$35)</f>
+        <v>108941.46145401314</v>
+      </c>
+      <c r="BW30" s="3">
+        <f>+BV30*(1+$AY$35)</f>
+        <v>111120.29068309341</v>
+      </c>
+      <c r="BX30" s="3">
+        <f>+BW30*(1+$AY$35)</f>
+        <v>113342.69649675528</v>
+      </c>
+      <c r="BY30" s="3">
+        <f>+BX30*(1+$AY$35)</f>
+        <v>115609.55042669039</v>
+      </c>
+      <c r="BZ30" s="3">
+        <f>+BY30*(1+$AY$35)</f>
+        <v>117921.7414352242</v>
+      </c>
+      <c r="CA30" s="3">
+        <f>+BZ30*(1+$AY$35)</f>
+        <v>120280.17626392869</v>
+      </c>
+      <c r="CB30" s="3">
+        <f>+CA30*(1+$AY$35)</f>
+        <v>122685.77978920727</v>
+      </c>
+      <c r="CC30" s="3">
+        <f>+CB30*(1+$AY$35)</f>
+        <v>125139.49538499142</v>
+      </c>
+      <c r="CD30" s="3">
+        <f>+CC30*(1+$AY$35)</f>
+        <v>127642.28529269125</v>
+      </c>
+      <c r="CE30" s="3">
+        <f>+CD30*(1+$AY$35)</f>
+        <v>130195.13099854508</v>
+      </c>
+      <c r="CF30" s="3">
+        <f>+CE30*(1+$AY$35)</f>
+        <v>132799.03361851597</v>
+      </c>
+      <c r="CG30" s="3">
+        <f>+CF30*(1+$AY$35)</f>
+        <v>135455.01429088629</v>
+      </c>
+      <c r="CH30" s="3">
+        <f>+CG30*(1+$AY$35)</f>
+        <v>138164.11457670401</v>
+      </c>
+      <c r="CI30" s="3">
+        <f>+CH30*(1+$AY$35)</f>
+        <v>140927.39686823811</v>
+      </c>
+      <c r="CJ30" s="3">
+        <f>+CI30*(1+$AY$35)</f>
+        <v>143745.94480560286</v>
+      </c>
+      <c r="CK30" s="3">
+        <f>+CJ30*(1+$AY$35)</f>
+        <v>146620.86370171493</v>
+      </c>
+      <c r="CL30" s="3">
+        <f>+CK30*(1+$AY$35)</f>
+        <v>149553.28097574922</v>
+      </c>
+      <c r="CM30" s="3">
+        <f>+CL30*(1+$AY$35)</f>
+        <v>152544.34659526421</v>
+      </c>
+      <c r="CN30" s="3">
+        <f>+CM30*(1+$AY$35)</f>
+        <v>155595.2335271695</v>
+      </c>
+      <c r="CO30" s="3">
+        <f>+CN30*(1+$AY$35)</f>
+        <v>158707.13819771289</v>
+      </c>
+      <c r="CP30" s="3">
+        <f>+CO30*(1+$AY$35)</f>
+        <v>161881.28096166716</v>
+      </c>
+      <c r="CQ30" s="3">
+        <f>+CP30*(1+$AY$35)</f>
+        <v>165118.90658090051</v>
+      </c>
+      <c r="CR30" s="3">
+        <f>+CQ30*(1+$AY$35)</f>
+        <v>168421.28471251854</v>
+      </c>
+      <c r="CS30" s="3">
+        <f>+CR30*(1+$AY$35)</f>
+        <v>171789.71040676892</v>
+      </c>
+      <c r="CT30" s="3">
+        <f>+CS30*(1+$AY$35)</f>
+        <v>175225.50461490429</v>
+      </c>
+      <c r="CU30" s="3">
+        <f>+CT30*(1+$AY$35)</f>
+        <v>178730.01470720238</v>
+      </c>
+      <c r="CV30" s="3">
+        <f>+CU30*(1+$AY$35)</f>
+        <v>182304.61500134642</v>
+      </c>
+      <c r="CW30" s="3">
+        <f>+CV30*(1+$AY$35)</f>
+        <v>185950.70730137336</v>
+      </c>
+      <c r="CX30" s="3">
+        <f>+CW30*(1+$AY$35)</f>
+        <v>189669.72144740084</v>
+      </c>
+      <c r="CY30" s="3">
+        <f>+CX30*(1+$AY$35)</f>
+        <v>193463.11587634886</v>
+      </c>
+      <c r="CZ30" s="3">
+        <f>+CY30*(1+$AY$35)</f>
+        <v>197332.37819387583</v>
+      </c>
+      <c r="DA30" s="3">
+        <f>+CZ30*(1+$AY$35)</f>
+        <v>201279.02575775335</v>
+      </c>
+      <c r="DB30" s="3">
+        <f>+DA30*(1+$AY$35)</f>
+        <v>205304.60627290842</v>
+      </c>
+      <c r="DC30" s="3">
+        <f>+DB30*(1+$AY$35)</f>
+        <v>209410.6983983666</v>
+      </c>
+      <c r="DD30" s="3">
+        <f>+DC30*(1+$AY$35)</f>
+        <v>213598.91236633394</v>
+      </c>
+      <c r="DE30" s="3">
+        <f>+DD30*(1+$AY$35)</f>
+        <v>217870.89061366062</v>
+      </c>
+      <c r="DF30" s="3">
+        <f>+DE30*(1+$AY$35)</f>
+        <v>222228.30842593385</v>
+      </c>
+      <c r="DG30" s="3">
+        <f>+DF30*(1+$AY$35)</f>
+        <v>226672.87459445253</v>
+      </c>
+      <c r="DH30" s="3">
+        <f>+DG30*(1+$AY$35)</f>
+        <v>231206.33208634157</v>
+      </c>
+      <c r="DI30" s="3">
+        <f>+DH30*(1+$AY$35)</f>
+        <v>235830.45872806842</v>
+      </c>
+      <c r="DJ30" s="3">
+        <f>+DI30*(1+$AY$35)</f>
+        <v>240547.06790262979</v>
+      </c>
+      <c r="DK30" s="3">
+        <f>+DJ30*(1+$AY$35)</f>
+        <v>245358.00926068239</v>
+      </c>
+      <c r="DL30" s="3">
+        <f>+DK30*(1+$AY$35)</f>
+        <v>250265.16944589606</v>
+      </c>
+      <c r="DM30" s="3">
+        <f>+DL30*(1+$AY$35)</f>
+        <v>255270.47283481399</v>
+      </c>
+      <c r="DN30" s="3">
+        <f>+DM30*(1+$AY$35)</f>
+        <v>260375.88229151026</v>
+      </c>
+      <c r="DO30" s="3">
+        <f>+DN30*(1+$AY$35)</f>
+        <v>265583.39993734047</v>
+      </c>
+      <c r="DP30" s="3">
+        <f>+DO30*(1+$AY$35)</f>
+        <v>270895.06793608726</v>
+      </c>
+      <c r="DQ30" s="3">
+        <f>+DP30*(1+$AY$35)</f>
+        <v>276312.96929480904</v>
+      </c>
+      <c r="DR30" s="3">
+        <f>+DQ30*(1+$AY$35)</f>
+        <v>281839.22868070524</v>
+      </c>
+    </row>
+    <row r="31" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" ref="D31:L31" si="92">D30/D32</f>
+        <f t="shared" ref="D31:L31" si="105">D30/D32</f>
         <v>-0.14827157237200492</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-0.92510011463761044</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-8.3658536308756248E-2</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-6.3504649239659608E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-7.4035973706406522E-2</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-4.7418670888492401E-2</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-4.5645513091992884E-2</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-2.0338288872945007E-2</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>-2.1965652114878394E-2</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" ref="M31:N31" si="93">M30/M32</f>
+        <f t="shared" ref="M31:N31" si="106">M30/M32</f>
         <v>-1.6170438081778302E-2</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>1.4011679273305783E-2</v>
       </c>
       <c r="O31" s="7">
@@ -3667,15 +4367,15 @@
         <v>9.6321122349961874E-2</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" ref="T31:Z31" si="94">+T30/T32</f>
+        <f t="shared" ref="T31:Z31" si="107">+T30/T32</f>
         <v>9.3548007699519944E-2</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="107"/>
         <v>0.11625926120176991</v>
       </c>
       <c r="V31" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="107"/>
         <v>0.13604748526566887</v>
       </c>
       <c r="W31" s="7">
@@ -3683,63 +4383,87 @@
         <v>0.14704299327253256</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" si="94"/>
-        <v>0.15861337941051806</v>
+        <f t="shared" si="107"/>
+        <v>0.12574719693848249</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="94"/>
-        <v>0.19892754046704461</v>
+        <f t="shared" si="107"/>
+        <v>0.17473941651235275</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="94"/>
-        <v>0.21966171550419966</v>
-      </c>
-      <c r="AC31" s="1">
-        <f>AC30/AC32</f>
+        <f t="shared" si="107"/>
+        <v>0.26215331993417496</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AG31" s="1">
+        <f>AG30/AG32</f>
         <v>-1.1952069271849119</v>
       </c>
-      <c r="AD31" s="1">
-        <f>AD30/AD32</f>
+      <c r="AH31" s="1">
+        <f>AH30/AH32</f>
         <v>-0.23131631712549852</v>
       </c>
-      <c r="AE31" s="1">
-        <f t="shared" ref="AE31:AH31" si="95">AE30/AE32</f>
+      <c r="AI31" s="1">
+        <f t="shared" ref="AI31:AL31" si="108">AI30/AI32</f>
         <v>-0.11985539971912569</v>
       </c>
-      <c r="AF31" s="1">
-        <f t="shared" si="95"/>
+      <c r="AJ31" s="1">
+        <f t="shared" si="108"/>
         <v>-7.5234388822408196E-2</v>
       </c>
-      <c r="AG31" s="1">
-        <f t="shared" si="95"/>
+      <c r="AK31" s="1">
+        <f t="shared" si="108"/>
         <v>0.44354727400317712</v>
       </c>
-      <c r="AH31" s="1">
-        <f t="shared" si="95"/>
-        <v>0.6665702480477006</v>
-      </c>
-      <c r="AI31" s="1">
-        <f t="shared" ref="AI31" si="96">AI30/AI32</f>
-        <v>1.3526335142738137</v>
-      </c>
-      <c r="AJ31" s="1">
-        <f t="shared" ref="AJ31" si="97">AJ30/AJ32</f>
-        <v>2.280736854720514</v>
-      </c>
-      <c r="AK31" s="1">
-        <f t="shared" ref="AK31:AM31" si="98">AK30/AK32</f>
-        <v>3.4007555278393005</v>
-      </c>
       <c r="AL31" s="1">
-        <f t="shared" si="98"/>
-        <v>4.9895540633286579</v>
+        <f t="shared" si="108"/>
+        <v>0.92480924384792684</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" si="98"/>
-        <v>7.2367216454491228</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM31" si="109">AM30/AM32</f>
+        <v>1.7338069659063331</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" ref="AN31" si="110">AN30/AN32</f>
+        <v>2.8708884317992434</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" ref="AO31:AQ31" si="111">AO30/AO32</f>
+        <v>4.3128096619975294</v>
+      </c>
+      <c r="AP31" s="1">
+        <f t="shared" si="111"/>
+        <v>6.1594557527656129</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" si="111"/>
+        <v>8.4058440945439141</v>
+      </c>
+      <c r="AR31" s="1">
+        <f t="shared" ref="AR31:AV31" si="112">AR30/AR32</f>
+        <v>10.99401413099144</v>
+      </c>
+      <c r="AS31" s="1">
+        <f t="shared" si="112"/>
+        <v>13.805903452303646</v>
+      </c>
+      <c r="AT31" s="1">
+        <f t="shared" si="112"/>
+        <v>17.245486042695703</v>
+      </c>
+      <c r="AU31" s="1">
+        <f t="shared" si="112"/>
+        <v>21.44519270444286</v>
+      </c>
+      <c r="AV31" s="1">
+        <f t="shared" si="112"/>
+        <v>26.564662069839329</v>
+      </c>
+    </row>
+    <row r="32" spans="2:122" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
@@ -3772,7 +4496,7 @@
         <v>2054.799</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32" si="99">L32</f>
+        <f t="shared" ref="M32" si="113">L32</f>
         <v>2054.799</v>
       </c>
       <c r="N32" s="4">
@@ -3806,61 +4530,79 @@
         <v>2552.8180000000002</v>
       </c>
       <c r="X32" s="3">
-        <f>+W32</f>
-        <v>2552.8180000000002</v>
+        <v>2562.9119999999998</v>
       </c>
       <c r="Y32" s="3">
-        <f>+X32</f>
-        <v>2552.8180000000002</v>
+        <v>2571.0569999999998</v>
       </c>
       <c r="Z32" s="3">
         <f>+Y32</f>
-        <v>2552.8180000000002</v>
-      </c>
-      <c r="AC32" s="3">
+        <v>2571.0569999999998</v>
+      </c>
+      <c r="AG32" s="3">
         <v>979.33</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AH32" s="3">
         <v>1923.617</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AI32" s="3">
         <f>AVERAGE(K32:N32)</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AJ32" s="3">
         <f>AVERAGE(O32:R32)</f>
         <v>2294.7339999999999</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AK32" s="3">
         <f>AVERAGE(S32:V32)</f>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AH32" s="3">
-        <f>AG32</f>
+      <c r="AL32" s="3">
+        <f>AK32</f>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AI32" s="3">
-        <f t="shared" ref="AI32" si="100">AH32</f>
+      <c r="AM32" s="3">
+        <f t="shared" ref="AM32" si="114">AL32</f>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32:AK32" si="101">AI32</f>
+      <c r="AN32" s="3">
+        <f t="shared" ref="AN32:AO32" si="115">AM32</f>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AK32" s="3">
-        <f t="shared" si="101"/>
+      <c r="AO32" s="3">
+        <f t="shared" si="115"/>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="102">AK32</f>
+      <c r="AP32" s="3">
+        <f t="shared" ref="AP32" si="116">AO32</f>
         <v>2450.6677500000001</v>
       </c>
-      <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="103">AL32</f>
+      <c r="AQ32" s="3">
+        <f t="shared" ref="AQ32" si="117">AP32</f>
         <v>2450.6677500000001</v>
       </c>
-    </row>
-    <row r="35" spans="2:39" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AR32" s="3">
+        <f t="shared" ref="AR32" si="118">AQ32</f>
+        <v>2450.6677500000001</v>
+      </c>
+      <c r="AS32" s="3">
+        <f t="shared" ref="AS32" si="119">AR32</f>
+        <v>2450.6677500000001</v>
+      </c>
+      <c r="AT32" s="3">
+        <f t="shared" ref="AT32" si="120">AS32</f>
+        <v>2450.6677500000001</v>
+      </c>
+      <c r="AU32" s="3">
+        <f t="shared" ref="AU32" si="121">AT32</f>
+        <v>2450.6677500000001</v>
+      </c>
+      <c r="AV32" s="3">
+        <f t="shared" ref="AV32" si="122">AU32</f>
+        <v>2450.6677500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:51" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
@@ -3890,244 +4632,304 @@
         <v>0.25920424233711881</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" ref="M35:O35" si="104">M19/I19-1</f>
+        <f t="shared" ref="M35:O35" si="123">M19/I19-1</f>
         <v>0.21862775598884077</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>0.17501218619113956</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" ref="P35:T35" si="105">P19/L19-1</f>
+        <f t="shared" ref="P35:T35" si="124">P19/L19-1</f>
         <v>0.12749624743662924</v>
       </c>
       <c r="Q35" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="R35" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>0.19538205039479051</v>
       </c>
       <c r="S35" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>0.20783493847893864</v>
       </c>
       <c r="T35" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>0.2715401909183468</v>
       </c>
       <c r="U35" s="10">
-        <f t="shared" ref="U35" si="106">U19/Q19-1</f>
+        <f t="shared" ref="U35" si="125">U19/Q19-1</f>
         <v>0.2998375015004684</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" ref="V35:Z35" si="107">V19/R19-1</f>
+        <f t="shared" ref="V35:Z35" si="126">V19/R19-1</f>
         <v>0.36105098684210524</v>
       </c>
       <c r="W35" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="126"/>
         <v>0.39200237097572588</v>
       </c>
       <c r="X35" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="126"/>
         <v>0.48053334591688368</v>
       </c>
       <c r="Y35" s="10">
-        <f t="shared" si="107"/>
-        <v>0.5</v>
+        <f t="shared" si="126"/>
+        <v>0.62793377403117256</v>
       </c>
       <c r="Z35" s="10">
-        <f t="shared" si="107"/>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="AD35" s="12">
-        <f>AD19/AC19-1</f>
-        <v>0.41111659206368234</v>
-      </c>
-      <c r="AE35" s="12">
-        <f>AE19/AD19-1</f>
-        <v>0.23606238840798532</v>
-      </c>
-      <c r="AF35" s="12">
-        <f>AF19/AE19-1</f>
-        <v>0.16726787909569985</v>
-      </c>
-      <c r="AG35" s="12">
-        <f>AG19/AF19-1</f>
-        <v>0.28806398455136084</v>
-      </c>
+        <f t="shared" si="126"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
       <c r="AH35" s="12">
         <f>AH19/AG19-1</f>
-        <v>0.47148567426287924</v>
+        <v>0.41111659206368234</v>
       </c>
       <c r="AI35" s="12">
-        <f t="shared" ref="AI35" si="108">AI19/AH19-1</f>
+        <f>AI19/AH19-1</f>
+        <v>0.23606238840798532</v>
+      </c>
+      <c r="AJ35" s="12">
+        <f>AJ19/AI19-1</f>
+        <v>0.16726787909569985</v>
+      </c>
+      <c r="AK35" s="12">
+        <f>AK19/AJ19-1</f>
+        <v>0.28806398455136084</v>
+      </c>
+      <c r="AL35" s="12">
+        <f>AL19/AK19-1</f>
+        <v>0.55008294867191077</v>
+      </c>
+      <c r="AM35" s="12">
+        <f t="shared" ref="AM35" si="127">AM19/AL19-1</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="AJ35" s="12">
-        <f t="shared" ref="AJ35:AK35" si="109">AJ19/AI19-1</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK35" s="12">
-        <f t="shared" si="109"/>
+      <c r="AN35" s="12">
+        <f t="shared" ref="AN35:AO35" si="128">AN19/AM19-1</f>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="AO35" s="12">
+        <f t="shared" si="128"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AL35" s="12">
-        <f t="shared" ref="AL35" si="110">AL19/AK19-1</f>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="AM35" s="12">
-        <f t="shared" ref="AM35" si="111">AM19/AL19-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AP35" s="12">
+        <f t="shared" ref="AP35" si="129">AP19/AO19-1</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AQ35" s="12">
+        <f t="shared" ref="AQ35" si="130">AQ19/AP19-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AR35" s="12">
+        <f t="shared" ref="AR35" si="131">AR19/AQ19-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AS35" s="12">
+        <f t="shared" ref="AS35" si="132">AS19/AR19-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AT35" s="12">
+        <f t="shared" ref="AT35" si="133">AT19/AS19-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AU35" s="12">
+        <f t="shared" ref="AU35" si="134">AU19/AT19-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AV35" s="12">
+        <f t="shared" ref="AV35" si="135">AV19/AU19-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY35" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:K36" si="112">D21/D19</f>
+        <f t="shared" ref="D36:K36" si="136">D21/D19</f>
         <v>0.72841211803611916</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.48390619492269304</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.78110844450791861</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.78281472537906538</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.77864366842961541</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" ref="L36:P36" si="113">L21/L19</f>
+        <f t="shared" ref="L36:P36" si="137">L21/L19</f>
         <v>0.78388617576795416</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>0.8</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>0.79491530089024498</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>0.8125083303819981</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>0.81456619608975533</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:R36" si="114">Q21/Q19</f>
+        <f t="shared" ref="Q36:R36" si="138">Q21/Q19</f>
         <v>0.82064608830100383</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="138"/>
         <v>0.83940953947368424</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" ref="S36:W36" si="115">S21/S19</f>
+        <f t="shared" ref="S36:W36" si="139">S21/S19</f>
         <v>0.83314888907806239</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>0.82870642085487534</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>0.81597097789711048</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>0.82911691453610126</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>0.82111664779161952</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" ref="X36:Z36" si="116">X21/X19</f>
+        <f t="shared" ref="X36:Z36" si="140">X21/X19</f>
+        <v>0.80783466135458171</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" si="140"/>
+        <v>0.82447853342499988</v>
+      </c>
+      <c r="Z36" s="8">
+        <f t="shared" si="140"/>
         <v>0.83</v>
       </c>
-      <c r="Y36" s="8">
-        <f t="shared" si="116"/>
-        <v>0.83</v>
-      </c>
-      <c r="Z36" s="8">
-        <f t="shared" si="116"/>
-        <v>0.83</v>
-      </c>
-      <c r="AC36" s="8">
-        <f t="shared" ref="AC36:AH36" si="117">AC21/AC19</f>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AG36" s="8">
+        <f t="shared" ref="AG36:AL36" si="141">AG21/AG19</f>
         <v>0.67735360899372454</v>
       </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="117"/>
+      <c r="AH36" s="8">
+        <f t="shared" si="141"/>
         <v>0.77987779924495215</v>
       </c>
-      <c r="AE36" s="8">
-        <f t="shared" si="117"/>
+      <c r="AI36" s="8">
+        <f t="shared" si="141"/>
         <v>0.8</v>
       </c>
-      <c r="AF36" s="8">
-        <f t="shared" si="117"/>
+      <c r="AJ36" s="8">
+        <f t="shared" si="141"/>
         <v>0.8</v>
       </c>
-      <c r="AG36" s="8">
-        <f t="shared" si="117"/>
+      <c r="AK36" s="8">
+        <f t="shared" si="141"/>
         <v>0.8265839169124346</v>
       </c>
-      <c r="AH36" s="8">
-        <f t="shared" si="117"/>
+      <c r="AL36" s="8">
+        <f t="shared" si="141"/>
         <v>0.8</v>
       </c>
-      <c r="AI36" s="8">
-        <f t="shared" ref="AI36" si="118">AI21/AI19</f>
+      <c r="AM36" s="8">
+        <f t="shared" ref="AM36" si="142">AM21/AM19</f>
         <v>0.8</v>
       </c>
-      <c r="AJ36" s="8">
-        <f t="shared" ref="AJ36:AK36" si="119">AJ21/AJ19</f>
+      <c r="AN36" s="8">
+        <f t="shared" ref="AN36:AO36" si="143">AN21/AN19</f>
         <v>0.8</v>
       </c>
-      <c r="AK36" s="8">
-        <f t="shared" si="119"/>
+      <c r="AO36" s="8">
+        <f t="shared" si="143"/>
         <v>0.8</v>
       </c>
-      <c r="AL36" s="8">
-        <f t="shared" ref="AL36:AM36" si="120">AL21/AL19</f>
+      <c r="AP36" s="8">
+        <f t="shared" ref="AP36:AQ36" si="144">AP21/AP19</f>
         <v>0.8</v>
       </c>
-      <c r="AM36" s="8">
-        <f t="shared" si="120"/>
+      <c r="AQ36" s="8">
+        <f t="shared" si="144"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AR36" s="8">
+        <f t="shared" ref="AR36:AV36" si="145">AR21/AR19</f>
+        <v>0.8</v>
+      </c>
+      <c r="AS36" s="8">
+        <f t="shared" si="145"/>
+        <v>0.8</v>
+      </c>
+      <c r="AT36" s="8">
+        <f t="shared" si="145"/>
+        <v>0.8</v>
+      </c>
+      <c r="AU36" s="8">
+        <f t="shared" si="145"/>
+        <v>0.8</v>
+      </c>
+      <c r="AV36" s="8">
+        <f t="shared" si="145"/>
+        <v>0.8</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY36" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>96</v>
       </c>
@@ -4146,19 +4948,19 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8">
-        <f t="shared" ref="R37:U37" si="121">+R22/N22-1</f>
+        <f t="shared" ref="R37:U37" si="146">+R22/N22-1</f>
         <v>-0.19218011596305584</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="146"/>
         <v>2.3468737716694443E-2</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="146"/>
         <v>1.6866166319710718E-2</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="146"/>
         <v>0.15824719330624504</v>
       </c>
       <c r="V37" s="8">
@@ -4170,60 +4972,91 @@
         <v>0.21702279815389924</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ref="X37:Z39" si="122">+X22/T22-1</f>
+        <f t="shared" ref="X37:Z39" si="147">+X22/T22-1</f>
+        <v>0.64172531061651905</v>
+      </c>
+      <c r="Y37" s="8">
+        <f t="shared" si="147"/>
+        <v>0.72970726054315538</v>
+      </c>
+      <c r="Z37" s="8">
+        <f t="shared" si="147"/>
         <v>0.24</v>
       </c>
-      <c r="Y37" s="8">
-        <f t="shared" si="122"/>
-        <v>0.24</v>
-      </c>
-      <c r="Z37" s="8">
-        <f t="shared" si="122"/>
-        <v>0.24</v>
-      </c>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-      <c r="AD37" s="8">
-        <f t="shared" ref="AD37:AF37" si="123">+AD22/AC22-1</f>
+      <c r="AD37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8">
+        <f t="shared" ref="AH37:AJ37" si="148">+AH22/AG22-1</f>
         <v>-0.10119774579823648</v>
       </c>
-      <c r="AE37" s="8">
-        <f t="shared" si="123"/>
+      <c r="AI37" s="8">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF37" s="8">
-        <f t="shared" si="123"/>
+      <c r="AJ37" s="8">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG37" s="8">
-        <f>+AG22/AF22-1</f>
+      <c r="AK37" s="8">
+        <f>+AK22/AJ22-1</f>
         <v>-0.12766364688599541</v>
       </c>
-      <c r="AH37" s="8">
-        <f t="shared" ref="AH37:AM37" si="124">+AH22/AG22-1</f>
+      <c r="AL37" s="8">
+        <f t="shared" ref="AL37:AQ37" si="149">+AL22/AK22-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AI37" s="8">
-        <f t="shared" si="124"/>
+      <c r="AM37" s="8">
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ37" s="8">
-        <f t="shared" si="124"/>
+      <c r="AN37" s="8">
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AK37" s="8">
-        <f t="shared" si="124"/>
+      <c r="AO37" s="8">
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL37" s="8">
-        <f t="shared" si="124"/>
+      <c r="AP37" s="8">
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM37" s="8">
-        <f t="shared" si="124"/>
+      <c r="AQ37" s="8">
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AR37" s="8">
+        <f t="shared" ref="AR37:AR39" si="150">+AR22/AQ22-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AS37" s="8">
+        <f t="shared" ref="AS37:AS39" si="151">+AS22/AR22-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AT37" s="8">
+        <f t="shared" ref="AT37:AT39" si="152">+AT22/AS22-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AU37" s="8">
+        <f t="shared" ref="AU37:AU39" si="153">+AU22/AT22-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AV37" s="8">
+        <f t="shared" ref="AV37:AV39" si="154">+AV22/AU22-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY37" s="3">
+        <f>NPV(AY36,AM30:DR30)</f>
+        <v>664633.29800124827</v>
+      </c>
+    </row>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -4242,84 +5075,115 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8">
-        <f t="shared" ref="R38:R39" si="125">+R23/N23-1</f>
+        <f t="shared" ref="R38:R39" si="155">+R23/N23-1</f>
         <v>-7.0169665057773778E-2</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" ref="S38:S39" si="126">+S23/O23-1</f>
+        <f t="shared" ref="S38:S39" si="156">+S23/O23-1</f>
         <v>0.18510601915184721</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" ref="T38:T39" si="127">+T23/P23-1</f>
+        <f t="shared" ref="T38:T39" si="157">+T23/P23-1</f>
         <v>3.2708505259297027E-2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ref="U38:W39" si="128">+U23/Q23-1</f>
+        <f t="shared" ref="U38:W39" si="158">+U23/Q23-1</f>
         <v>3.6821242657242514E-2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>0.23178261040544257</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>0.23914820960488647</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="147"/>
+        <v>0.71291762855475782</v>
+      </c>
+      <c r="Y38" s="8">
+        <f t="shared" si="147"/>
+        <v>0.66042146476278218</v>
+      </c>
+      <c r="Z38" s="8">
+        <f t="shared" si="147"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Y38" s="8">
-        <f t="shared" si="122"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Z38" s="8">
-        <f t="shared" si="122"/>
-        <v>0.19999999999999996</v>
-      </c>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-      <c r="AD38" s="8">
-        <f t="shared" ref="AD38:AF38" si="129">+AD23/AC23-1</f>
+      <c r="AD38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8">
+        <f t="shared" ref="AH38:AJ38" si="159">+AH23/AG23-1</f>
         <v>-0.30887347055256298</v>
       </c>
-      <c r="AE38" s="8">
-        <f t="shared" si="129"/>
+      <c r="AI38" s="8">
+        <f t="shared" si="159"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF38" s="8">
-        <f t="shared" si="129"/>
+      <c r="AJ38" s="8">
+        <f t="shared" si="159"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG38" s="8">
-        <f>+AG23/AF23-1</f>
+      <c r="AK38" s="8">
+        <f>+AK23/AJ23-1</f>
         <v>-0.26883604114300652</v>
       </c>
-      <c r="AH38" s="8">
-        <f t="shared" ref="AH38:AM38" si="130">+AH23/AG23-1</f>
+      <c r="AL38" s="8">
+        <f t="shared" ref="AL38:AQ38" si="160">+AL23/AK23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AI38" s="8">
-        <f t="shared" si="130"/>
+      <c r="AM38" s="8">
+        <f t="shared" si="160"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ38" s="8">
-        <f t="shared" si="130"/>
+      <c r="AN38" s="8">
+        <f t="shared" si="160"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AK38" s="8">
-        <f t="shared" si="130"/>
+      <c r="AO38" s="8">
+        <f t="shared" si="160"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="130"/>
+      <c r="AP38" s="8">
+        <f t="shared" si="160"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM38" s="8">
-        <f t="shared" si="130"/>
+      <c r="AQ38" s="8">
+        <f t="shared" si="160"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AR38" s="8">
+        <f t="shared" si="150"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AS38" s="8">
+        <f t="shared" si="151"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AT38" s="8">
+        <f t="shared" si="152"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AU38" s="8">
+        <f t="shared" si="153"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AV38" s="8">
+        <f t="shared" si="154"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY38" s="1">
+        <f>AY37/Main!L3</f>
+        <v>258.51159004327042</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -4338,19 +5202,19 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="155"/>
         <v>-0.45050780050980233</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="156"/>
         <v>-2.6354611502412362E-2</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="157"/>
         <v>0.56695604620958373</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>9.6199109222802726E-2</v>
       </c>
       <c r="V39" s="8">
@@ -4358,64 +5222,94 @@
         <v>0.32314081702044972</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" ref="W39" si="131">+W24/S24-1</f>
+        <f t="shared" ref="W39" si="161">+W24/S24-1</f>
         <v>0.22652342815479787</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="147"/>
+        <v>0.18232779304628544</v>
+      </c>
+      <c r="Y39" s="8">
+        <f t="shared" si="147"/>
+        <v>0.78048646208392536</v>
+      </c>
+      <c r="Z39" s="8">
+        <f t="shared" si="147"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Y39" s="8">
-        <f t="shared" si="122"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="Z39" s="8">
-        <f t="shared" si="122"/>
-        <v>0.30000000000000004</v>
-      </c>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="8">
-        <f t="shared" ref="AD39:AF39" si="132">+AD24/AC24-1</f>
+      <c r="AD39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8">
+        <f t="shared" ref="AH39:AJ39" si="162">+AH24/AG24-1</f>
         <v>-8.6507609299657506E-2</v>
       </c>
-      <c r="AE39" s="8">
-        <f t="shared" si="132"/>
+      <c r="AI39" s="8">
+        <f t="shared" si="162"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF39" s="8">
-        <f t="shared" si="132"/>
+      <c r="AJ39" s="8">
+        <f t="shared" si="162"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG39" s="8">
-        <f>+AG24/AF24-1</f>
+      <c r="AK39" s="8">
+        <f>+AK24/AJ24-1</f>
         <v>-0.42551271990361805</v>
       </c>
-      <c r="AH39" s="8">
-        <f t="shared" ref="AH39:AM39" si="133">+AH24/AG24-1</f>
+      <c r="AL39" s="8">
+        <f t="shared" ref="AL39:AQ39" si="163">+AL24/AK24-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AI39" s="8">
-        <f t="shared" si="133"/>
+      <c r="AM39" s="8">
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ39" s="8">
-        <f t="shared" si="133"/>
+      <c r="AN39" s="8">
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AK39" s="8">
-        <f t="shared" si="133"/>
+      <c r="AO39" s="8">
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL39" s="8">
-        <f t="shared" si="133"/>
+      <c r="AP39" s="8">
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM39" s="8">
-        <f t="shared" si="133"/>
+      <c r="AQ39" s="8">
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="41" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR39" s="8">
+        <f t="shared" si="150"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AS39" s="8">
+        <f t="shared" si="151"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AT39" s="8">
+        <f t="shared" si="152"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AU39" s="8">
+        <f t="shared" si="153"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AV39" s="8">
+        <f t="shared" si="154"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY39" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
@@ -4470,16 +5364,68 @@
         <f>993.464+4437.225</f>
         <v>5430.6890000000003</v>
       </c>
-      <c r="AF41" s="4">
+      <c r="X41" s="3">
+        <f>929.547+5070.875</f>
+        <v>6000.4220000000005</v>
+      </c>
+      <c r="Y41" s="3">
+        <f>1615.967+4821.85</f>
+        <v>6437.8170000000009</v>
+      </c>
+      <c r="AJ41" s="4">
         <f>831.047+2843.132</f>
         <v>3674.1790000000001</v>
       </c>
-      <c r="AG41" s="3">
-        <f t="shared" ref="AG41:AG46" si="134">+V41</f>
+      <c r="AK41" s="3">
+        <f t="shared" ref="AK41:AK46" si="164">+V41</f>
         <v>5229.9870000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL41" s="3">
+        <f>+AK41+AL30</f>
+        <v>7496.3871888000003</v>
+      </c>
+      <c r="AM41" s="3">
+        <f>+AL41+AM30</f>
+        <v>11745.372004872001</v>
+      </c>
+      <c r="AN41" s="3">
+        <f>+AM41+AN30</f>
+        <v>18780.965698530483</v>
+      </c>
+      <c r="AO41" s="3">
+        <f>+AN41+AO30</f>
+        <v>29350.229249076227</v>
+      </c>
+      <c r="AP41" s="3">
+        <f>+AO41+AP30</f>
+        <v>44445.008819930888</v>
+      </c>
+      <c r="AQ41" s="3">
+        <f>+AP41+AQ30</f>
+        <v>65044.939853957607</v>
+      </c>
+      <c r="AR41" s="3">
+        <f>+AQ41+AR30</f>
+        <v>91987.615727822602</v>
+      </c>
+      <c r="AS41" s="3">
+        <f>+AR41+AS30</f>
+        <v>125821.29807799682</v>
+      </c>
+      <c r="AT41" s="3">
+        <f>+AS41+AT30</f>
+        <v>168084.25455590629</v>
+      </c>
+      <c r="AU41" s="3">
+        <f>+AT41+AU30</f>
+        <v>220639.29670921969</v>
+      </c>
+      <c r="AV41" s="3">
+        <f>+AU41+AV30</f>
+        <v>285740.4573334232</v>
+      </c>
+    </row>
+    <row r="42" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>34</v>
       </c>
@@ -4524,15 +5470,21 @@
       <c r="W42" s="3">
         <v>725.20500000000004</v>
       </c>
-      <c r="AF42" s="4">
+      <c r="X42" s="3">
+        <v>747.48400000000004</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1005.91</v>
+      </c>
+      <c r="AJ42" s="4">
         <v>364.78399999999999</v>
       </c>
-      <c r="AG42" s="3">
-        <f t="shared" si="134"/>
+      <c r="AK42" s="3">
+        <f t="shared" si="164"/>
         <v>575.048</v>
       </c>
     </row>
-    <row r="43" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
@@ -4577,15 +5529,21 @@
       <c r="W43" s="3">
         <v>126.705</v>
       </c>
-      <c r="AF43" s="4">
+      <c r="X43" s="3">
+        <v>142.48699999999999</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>142.429</v>
+      </c>
+      <c r="AJ43" s="4">
         <v>99.655000000000001</v>
       </c>
-      <c r="AG43" s="3">
-        <f t="shared" si="134"/>
+      <c r="AK43" s="3">
+        <f t="shared" si="164"/>
         <v>129.25399999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
@@ -4630,15 +5588,21 @@
       <c r="W44" s="3">
         <v>39.668999999999997</v>
       </c>
-      <c r="AF44" s="4">
+      <c r="X44" s="3">
+        <v>43.523000000000003</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>45.706000000000003</v>
+      </c>
+      <c r="AJ44" s="4">
         <v>47.758000000000003</v>
       </c>
-      <c r="AG44" s="3">
-        <f t="shared" si="134"/>
+      <c r="AK44" s="3">
+        <f t="shared" si="164"/>
         <v>39.637999999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>37</v>
       </c>
@@ -4683,15 +5647,21 @@
       <c r="W45" s="3">
         <v>209.34800000000001</v>
       </c>
-      <c r="AF45" s="4">
+      <c r="X45" s="3">
+        <v>203.47399999999999</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>204.315</v>
+      </c>
+      <c r="AJ45" s="4">
         <v>182.863</v>
       </c>
-      <c r="AG45" s="3">
-        <f t="shared" si="134"/>
+      <c r="AK45" s="3">
+        <f t="shared" si="164"/>
         <v>200.74</v>
       </c>
     </row>
-    <row r="46" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>38</v>
       </c>
@@ -4736,15 +5706,21 @@
       <c r="W46" s="3">
         <v>205.30099999999999</v>
       </c>
-      <c r="AF46" s="4">
+      <c r="X46" s="3">
+        <v>228.298</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>277.78300000000002</v>
+      </c>
+      <c r="AJ46" s="4">
         <v>153.18600000000001</v>
       </c>
-      <c r="AG46" s="3">
-        <f t="shared" si="134"/>
+      <c r="AK46" s="3">
+        <f t="shared" si="164"/>
         <v>166.21700000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>39</v>
       </c>
@@ -4764,54 +5740,62 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:W47" si="135">SUM(O41:O46)</f>
+        <f t="shared" ref="O47:X47" si="165">SUM(O41:O46)</f>
         <v>3683.1379999999995</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>4807.0790000000006</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>5191.8800000000019</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>5768.0969999999998</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>6340.8839999999991</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>6736.9170000000004</v>
       </c>
-      <c r="AF47" s="4">
-        <f>SUM(AF41:AF46)</f>
+      <c r="X47" s="4">
+        <f t="shared" si="165"/>
+        <v>7365.688000000001</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" ref="Y47" si="166">SUM(Y41:Y46)</f>
+        <v>8113.9600000000009</v>
+      </c>
+      <c r="AJ47" s="4">
+        <f>SUM(AJ41:AJ46)</f>
         <v>4522.4250000000002</v>
       </c>
-      <c r="AG47" s="3">
-        <f>SUM(AG41:AG46)</f>
+      <c r="AK47" s="3">
+        <f>SUM(AK41:AK46)</f>
         <v>6340.8839999999991</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="2"/>
+    </row>
+    <row r="49" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>40</v>
       </c>
@@ -4856,15 +5840,21 @@
       <c r="W49" s="3">
         <v>2.33</v>
       </c>
-      <c r="AF49" s="4">
+      <c r="X49" s="3">
+        <v>10.773999999999999</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>67.503</v>
+      </c>
+      <c r="AJ49" s="4">
         <v>12.122</v>
       </c>
-      <c r="AG49" s="3">
-        <f t="shared" ref="AG49:AG55" si="136">+V49</f>
+      <c r="AK49" s="3">
+        <f t="shared" ref="AK49:AK55" si="167">+V49</f>
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
@@ -4909,15 +5899,21 @@
       <c r="W50" s="3">
         <v>371.06099999999998</v>
       </c>
-      <c r="AF50" s="4">
+      <c r="X50" s="3">
+        <v>393.62299999999999</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>381.73700000000002</v>
+      </c>
+      <c r="AJ50" s="4">
         <v>222.99100000000001</v>
       </c>
-      <c r="AG50" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK50" s="3">
+        <f t="shared" si="167"/>
         <v>427.04599999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4972,16 +5968,24 @@
         <f>318.556+36.372</f>
         <v>354.928</v>
       </c>
-      <c r="AF51" s="4">
+      <c r="X51" s="3">
+        <f>376.784+44.638</f>
+        <v>421.42199999999997</v>
+      </c>
+      <c r="Y51" s="3">
+        <f>316.722+43.901</f>
+        <v>360.62299999999999</v>
+      </c>
+      <c r="AJ51" s="4">
         <f>246.901+28.047</f>
         <v>274.94800000000004</v>
       </c>
-      <c r="AG51" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK51" s="3">
+        <f t="shared" si="167"/>
         <v>299.50900000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5036,16 +6040,24 @@
         <f>231.077+1.463</f>
         <v>232.54</v>
       </c>
-      <c r="AF52" s="4">
+      <c r="X52" s="3">
+        <f>262.994+1.491</f>
+        <v>264.48500000000001</v>
+      </c>
+      <c r="Y52" s="3">
+        <f>368.17+1.57</f>
+        <v>369.74</v>
+      </c>
+      <c r="AJ52" s="4">
         <f>1.477+209.828</f>
         <v>211.30500000000001</v>
       </c>
-      <c r="AG52" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK52" s="3">
+        <f t="shared" si="167"/>
         <v>266.91500000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
@@ -5100,16 +6112,24 @@
         <f>200.177+44.419</f>
         <v>244.596</v>
       </c>
-      <c r="AF53" s="4">
+      <c r="X53" s="3">
+        <f>45.465+192.347</f>
+        <v>237.81200000000001</v>
+      </c>
+      <c r="Y53" s="3">
+        <f>46.271+189.165</f>
+        <v>235.43599999999998</v>
+      </c>
+      <c r="AJ53" s="4">
         <f>54.176+175.216</f>
         <v>229.392</v>
       </c>
-      <c r="AG53" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK53" s="3">
+        <f t="shared" si="167"/>
         <v>239.21899999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>46</v>
       </c>
@@ -5154,15 +6174,21 @@
       <c r="W54" s="3">
         <v>12.489000000000001</v>
       </c>
-      <c r="AF54" s="4">
+      <c r="X54" s="3">
+        <v>12.007999999999999</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>10.651999999999999</v>
+      </c>
+      <c r="AJ54" s="4">
         <v>10.702</v>
       </c>
-      <c r="AG54" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK54" s="3">
+        <f t="shared" si="167"/>
         <v>13.685</v>
       </c>
     </row>
-    <row r="55" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
@@ -5207,15 +6233,21 @@
       <c r="W55" s="3">
         <v>5518.973</v>
       </c>
-      <c r="AF55" s="4">
+      <c r="X55" s="3">
+        <v>6025.5640000000003</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>6688.2690000000002</v>
+      </c>
+      <c r="AJ55" s="4">
         <v>3560.9650000000001</v>
       </c>
-      <c r="AG55" s="3">
-        <f t="shared" si="136"/>
+      <c r="AK55" s="3">
+        <f t="shared" si="167"/>
         <v>5094.4070000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
@@ -5235,54 +6267,63 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4">
-        <f t="shared" ref="O56:W56" si="137">SUM(O49:O55)</f>
+        <f t="shared" ref="O56:X56" si="168">SUM(O49:O55)</f>
         <v>3683.1379999999999</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>3980.2639999999997</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>4807.0789999999997</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>5191.8799999999992</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>5768.0969999999998</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>6340.884</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="168"/>
         <v>6736.9169999999995</v>
       </c>
-      <c r="AF56" s="4">
-        <f>SUM(AF49:AF55)</f>
+      <c r="X56" s="4">
+        <f t="shared" si="168"/>
+        <v>7365.6880000000001</v>
+      </c>
+      <c r="Y56" s="4">
+        <f t="shared" ref="Y56" si="169">SUM(Y49:Y55)</f>
+        <v>8113.96</v>
+      </c>
+      <c r="AJ56" s="4">
+        <f>SUM(AJ49:AJ55)</f>
         <v>4522.4250000000002</v>
       </c>
-      <c r="AG56" s="3">
-        <f>SUM(AG49:AG55)</f>
+      <c r="AK56" s="3">
+        <f>SUM(AK49:AK55)</f>
         <v>6340.884</v>
       </c>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
@@ -5292,43 +6333,51 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4">
-        <f>+S30</f>
+        <f t="shared" ref="S58:X58" si="170">+S30</f>
         <v>231.18099999999993</v>
       </c>
       <c r="T58" s="4">
-        <f>+T30</f>
+        <f t="shared" si="170"/>
         <v>225.89000000000001</v>
       </c>
       <c r="U58" s="4">
-        <f>+U30</f>
+        <f t="shared" si="170"/>
         <v>285.95000000000005</v>
       </c>
       <c r="V58" s="4">
-        <f>+V30</f>
+        <f t="shared" si="170"/>
         <v>343.96600000000001</v>
       </c>
       <c r="W58" s="4">
-        <f>+W30</f>
+        <f t="shared" si="170"/>
         <v>375.37400000000008</v>
       </c>
-      <c r="AD58" s="16">
-        <f>+AD30</f>
+      <c r="X58" s="4">
+        <f t="shared" si="170"/>
+        <v>322.279</v>
+      </c>
+      <c r="Y58" s="4">
+        <f>+Y30</f>
+        <v>449.2650000000001</v>
+      </c>
+      <c r="AH58" s="16">
+        <f>+AH30</f>
         <v>-444.96400000000006</v>
       </c>
-      <c r="AE58" s="16">
-        <f>+AE30</f>
+      <c r="AI58" s="16">
+        <f>+AI30</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AF58" s="16">
-        <f>+AF30</f>
+      <c r="AJ58" s="16">
+        <f>+AJ30</f>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AG58" s="3">
-        <f t="shared" ref="AG58:AG66" si="138">SUM(S58:V58)</f>
+      <c r="AK58" s="3">
+        <f t="shared" ref="AK58:AK66" si="171">SUM(S58:V58)</f>
         <v>1086.9870000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>57</v>
       </c>
@@ -5354,21 +6403,29 @@
       <c r="W59" s="3">
         <v>217.71700000000001</v>
       </c>
-      <c r="AD59" s="16">
+      <c r="X59" s="3">
+        <f>546.289-W59</f>
+        <v>328.572</v>
+      </c>
+      <c r="Y59" s="3">
+        <f>1023.037-X59-W59</f>
+        <v>476.74800000000005</v>
+      </c>
+      <c r="AH59" s="16">
         <v>-520.37900000000002</v>
       </c>
-      <c r="AE59" s="16">
+      <c r="AI59" s="16">
         <v>-371.09399999999999</v>
       </c>
-      <c r="AF59" s="16">
+      <c r="AJ59" s="16">
         <v>217.375</v>
       </c>
-      <c r="AG59" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK59" s="3">
+        <f t="shared" si="171"/>
         <v>467.91800000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>58</v>
       </c>
@@ -5394,21 +6451,29 @@
       <c r="W60" s="3">
         <v>6.6219999999999999</v>
       </c>
-      <c r="AD60" s="16">
+      <c r="X60" s="3">
+        <f>13.152-W60</f>
+        <v>6.5299999999999994</v>
+      </c>
+      <c r="Y60" s="3">
+        <f>19.127-X60-W60</f>
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="AH60" s="16">
         <v>14.897</v>
       </c>
-      <c r="AE60" s="16">
+      <c r="AI60" s="16">
         <v>22.521999999999998</v>
       </c>
-      <c r="AF60" s="16">
+      <c r="AJ60" s="16">
         <v>33.353999999999999</v>
       </c>
-      <c r="AG60" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK60" s="3">
+        <f t="shared" si="171"/>
         <v>31.586999999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
@@ -5434,21 +6499,29 @@
       <c r="W61" s="3">
         <v>155.339</v>
       </c>
-      <c r="AD61" s="16">
+      <c r="X61" s="3">
+        <f>315.31-W61</f>
+        <v>159.971</v>
+      </c>
+      <c r="Y61" s="3">
+        <f>487.628-X61-W61</f>
+        <v>172.31799999999998</v>
+      </c>
+      <c r="AH61" s="16">
         <v>778.21500000000003</v>
       </c>
-      <c r="AE61" s="16">
+      <c r="AI61" s="16">
         <v>564.798</v>
       </c>
-      <c r="AF61" s="16">
+      <c r="AJ61" s="16">
         <v>475.90300000000002</v>
       </c>
-      <c r="AG61" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK61" s="3">
+        <f t="shared" si="171"/>
         <v>691.63800000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
@@ -5474,21 +6547,28 @@
       <c r="W62" s="3">
         <v>10.688000000000001</v>
       </c>
-      <c r="AD62" s="16">
+      <c r="X62" s="3">
+        <f>-W62</f>
+        <v>-10.688000000000001</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="16">
         <v>33.820999999999998</v>
       </c>
-      <c r="AE62" s="16">
+      <c r="AI62" s="16">
         <v>40.308999999999997</v>
       </c>
-      <c r="AF62" s="16">
+      <c r="AJ62" s="16">
         <v>47.018999999999998</v>
       </c>
-      <c r="AG62" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK62" s="3">
+        <f t="shared" si="171"/>
         <v>41.238999999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>60</v>
       </c>
@@ -5514,21 +6594,29 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-      <c r="AD63" s="16">
+      <c r="X63" s="3">
+        <f>-0.452-W63</f>
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="Y63" s="3">
+        <f>5.005-X63-W63</f>
+        <v>5.4569999999999999</v>
+      </c>
+      <c r="AH63" s="16">
         <v>73.311000000000007</v>
       </c>
-      <c r="AE63" s="16">
+      <c r="AI63" s="16">
         <v>272.108</v>
       </c>
-      <c r="AF63" s="16">
+      <c r="AJ63" s="16">
         <v>13.16</v>
       </c>
-      <c r="AG63" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK63" s="3">
+        <f t="shared" si="171"/>
         <v>19.306000000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
@@ -5554,21 +6642,29 @@
       <c r="W64" s="3">
         <v>-17.312999999999999</v>
       </c>
-      <c r="AD64" s="16">
+      <c r="X64" s="3">
+        <f>-24.441-W64</f>
+        <v>-7.1280000000000001</v>
+      </c>
+      <c r="Y64" s="3">
+        <f>-32.053-X64-W64</f>
+        <v>-7.6119999999999983</v>
+      </c>
+      <c r="AH64" s="16">
         <v>0</v>
       </c>
-      <c r="AE64" s="16">
+      <c r="AI64" s="16">
         <v>-15.537000000000001</v>
       </c>
-      <c r="AF64" s="16">
+      <c r="AJ64" s="16">
         <v>-46.609000000000002</v>
       </c>
-      <c r="AG64" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK64" s="3">
+        <f t="shared" si="171"/>
         <v>-52.521000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>38</v>
       </c>
@@ -5594,24 +6690,32 @@
       <c r="W65" s="3">
         <v>3.5310000000000001</v>
       </c>
-      <c r="AD65" s="16">
+      <c r="X65" s="3">
+        <f>26.533-W65</f>
+        <v>23.002000000000002</v>
+      </c>
+      <c r="Y65" s="3">
+        <f>15.833-X65-W65</f>
+        <v>-10.700000000000003</v>
+      </c>
+      <c r="AH65" s="16">
         <f>2.767+43.316</f>
         <v>46.083000000000006</v>
       </c>
-      <c r="AE65" s="16">
+      <c r="AI65" s="16">
         <f>16.328-44.306-0.174</f>
         <v>-28.151999999999997</v>
       </c>
-      <c r="AF65" s="16">
+      <c r="AJ65" s="16">
         <f>-4.806-29.449</f>
         <v>-34.255000000000003</v>
       </c>
-      <c r="AG65" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK65" s="3">
+        <f t="shared" si="171"/>
         <v>24.795000000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
@@ -5658,24 +6762,32 @@
         <f>-134.959+40.73+22.395+18.76-13.247</f>
         <v>-66.321000000000012</v>
       </c>
-      <c r="AD66" s="16">
+      <c r="X66" s="3">
+        <f>-163.501-7.307+48.202+120.666-24.937-W66</f>
+        <v>39.444000000000017</v>
+      </c>
+      <c r="Y66" s="3">
+        <f>-422.977+50.343+90.582+160.154-39.501-X66-W66</f>
+        <v>-134.52199999999999</v>
+      </c>
+      <c r="AH66" s="16">
         <f>-35.237-10.974-3.345+57.767+15.245+24.732-104.944-32.156-3.185</f>
         <v>-92.097000000000008</v>
       </c>
-      <c r="AE66" s="16">
+      <c r="AI66" s="16">
         <f>-72.819-24.811+6.033-29.859+5.527-61.154-49.471-34.59-0.073</f>
         <v>-261.21699999999998</v>
       </c>
-      <c r="AF66" s="16">
+      <c r="AJ66" s="16">
         <f>-106.159-6.197+3.242-31.832+52.895+79.512+64.347-49.63+0.058</f>
         <v>6.2360000000000042</v>
       </c>
-      <c r="AG66" s="3">
-        <f t="shared" si="138"/>
+      <c r="AK66" s="3">
+        <f t="shared" si="171"/>
         <v>-70.097000000000051</v>
       </c>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>47</v>
       </c>
@@ -5685,59 +6797,69 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <f>SUM(S59:S66)</f>
+        <f t="shared" ref="S67:Y67" si="172">SUM(S59:S66)</f>
         <v>129.57900000000001</v>
       </c>
       <c r="T67" s="4">
-        <f>SUM(T59:T66)</f>
+        <f t="shared" si="172"/>
         <v>144.18699999999995</v>
       </c>
       <c r="U67" s="4">
-        <f>SUM(U59:U66)</f>
+        <f t="shared" si="172"/>
         <v>419.77199999999976</v>
       </c>
       <c r="V67" s="4">
-        <f>SUM(V59:V66)</f>
+        <f t="shared" si="172"/>
         <v>460.32700000000017</v>
       </c>
       <c r="W67" s="4">
-        <f>SUM(W59:W66)</f>
+        <f t="shared" si="172"/>
         <v>310.26299999999998</v>
       </c>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
+      <c r="X67" s="4">
+        <f t="shared" si="172"/>
+        <v>539.25099999999998</v>
+      </c>
+      <c r="Y67" s="4">
+        <f t="shared" si="172"/>
+        <v>507.66400000000004</v>
+      </c>
       <c r="Z67" s="3"/>
-      <c r="AC67" s="3">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AG67" s="3">
         <v>-296608</v>
       </c>
-      <c r="AD67" s="16">
-        <f>SUM(AD59:AD66)</f>
+      <c r="AH67" s="16">
+        <f>SUM(AH59:AH66)</f>
         <v>333.851</v>
       </c>
-      <c r="AE67" s="16">
-        <f>SUM(AE59:AE66)</f>
+      <c r="AI67" s="16">
+        <f>SUM(AI59:AI66)</f>
         <v>223.73700000000002</v>
       </c>
-      <c r="AF67" s="16">
-        <f>SUM(AF59:AF66)</f>
+      <c r="AJ67" s="16">
+        <f>SUM(AJ59:AJ66)</f>
         <v>712.18299999999999</v>
       </c>
-      <c r="AG67" s="3">
-        <f>SUM(AG59:AG66)</f>
+      <c r="AK67" s="3">
+        <f>SUM(AK59:AK66)</f>
         <v>1153.8650000000002</v>
       </c>
-      <c r="AH67" s="3">
+      <c r="AL67" s="3">
         <v>2200</v>
       </c>
-      <c r="AI67" s="3">
+      <c r="AM67" s="3">
         <v>4000</v>
       </c>
-      <c r="AJ67">
-        <f>+AI67*1.5</f>
+      <c r="AN67">
+        <f>+AM67*1.5</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="68" spans="2:36" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:40" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -5760,31 +6882,36 @@
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="23">
-        <f>AF67/AE67-1</f>
-        <v>2.1831257235057229</v>
-      </c>
-      <c r="AG68" s="23">
-        <f>AG67/AF67-1</f>
-        <v>0.62018048731856878</v>
-      </c>
-      <c r="AH68" s="23">
-        <f>AH67/AG67-1</f>
-        <v>0.90663552495309196</v>
-      </c>
-      <c r="AI68" s="23">
-        <f>AI67/AH67-1</f>
-        <v>0.81818181818181812</v>
-      </c>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
       <c r="AJ68" s="23">
         <f>AJ67/AI67-1</f>
+        <v>2.1831257235057229</v>
+      </c>
+      <c r="AK68" s="23">
+        <f>AK67/AJ67-1</f>
+        <v>0.62018048731856878</v>
+      </c>
+      <c r="AL68" s="23">
+        <f>AL67/AK67-1</f>
+        <v>0.90663552495309196</v>
+      </c>
+      <c r="AM68" s="23">
+        <f>AM67/AL67-1</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="AN68" s="23">
+        <f>AN67/AM67-1</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
@@ -5807,8 +6934,15 @@
         <f>-12.634-U70-T70-S70</f>
         <v>-3.1059999999999994</v>
       </c>
-    </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W70" s="3">
+        <v>-6.1840000000000002</v>
+      </c>
+      <c r="X70" s="3">
+        <f>-13.818-W70</f>
+        <v>-7.6339999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>64</v>
       </c>
@@ -5833,9 +6967,16 @@
         <f>-5395.913+5073.507-5.15-U71-T71-S71</f>
         <v>643.76499999999999</v>
       </c>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W71" s="3">
+        <f>-1704.72+350.627-30</f>
+        <v>-1384.0930000000001</v>
+      </c>
+      <c r="X71" s="3">
+        <f>-2576.231+652.762-70-W71</f>
+        <v>-609.3760000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>63</v>
       </c>
@@ -5845,23 +6986,35 @@
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4">
-        <f>SUM(S70:S71)</f>
+        <f t="shared" ref="S72:X72" si="173">SUM(S70:S71)</f>
         <v>-511.245</v>
       </c>
       <c r="T72" s="4">
-        <f>SUM(T70:T71)</f>
+        <f t="shared" si="173"/>
         <v>-148.8779999999999</v>
       </c>
       <c r="U72" s="4">
-        <f>SUM(U70:U71)</f>
+        <f t="shared" si="173"/>
         <v>-320.726</v>
       </c>
       <c r="V72" s="4">
-        <f>SUM(V70:V71)</f>
+        <f t="shared" si="173"/>
         <v>640.65899999999999</v>
       </c>
-    </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W72" s="4">
+        <f t="shared" si="173"/>
+        <v>-1390.277</v>
+      </c>
+      <c r="X72" s="4">
+        <f t="shared" si="173"/>
+        <v>-617.01000000000022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>68</v>
       </c>
@@ -5884,8 +7037,16 @@
         <f>745.396-U74-T74-S74-218.28</f>
         <v>256.90899999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W74" s="3">
+        <f>66.584-77.573</f>
+        <v>-10.98899999999999</v>
+      </c>
+      <c r="X74" s="3">
+        <f>95.201-W74-81.117</f>
+        <v>25.072999999999979</v>
+      </c>
+    </row>
+    <row r="75" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>69</v>
       </c>
@@ -5908,8 +7069,15 @@
         <f>-64.196-U75-T75-S75</f>
         <v>-18.597999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W75" s="3">
+        <v>-17.998000000000001</v>
+      </c>
+      <c r="X75" s="3">
+        <f>-36.594-W75</f>
+        <v>-18.596</v>
+      </c>
+    </row>
+    <row r="76" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>38</v>
       </c>
@@ -5932,8 +7100,15 @@
         <f>0.444-U76-T76-S76</f>
         <v>0.35299999999999992</v>
       </c>
-    </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W76" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X76" s="3">
+        <f>0.063-W76</f>
+        <v>-2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>67</v>
       </c>
@@ -5943,23 +7118,31 @@
       </c>
       <c r="R77" s="4"/>
       <c r="S77" s="4">
-        <f>SUM(S74:S76)</f>
+        <f t="shared" ref="S77:X77" si="174">SUM(S74:S76)</f>
         <v>75.248000000000005</v>
       </c>
       <c r="T77" s="4">
-        <f>SUM(T74:T76)</f>
+        <f t="shared" si="174"/>
         <v>-1.9750000000000005</v>
       </c>
       <c r="U77" s="4">
-        <f>SUM(U74:U76)</f>
+        <f t="shared" si="174"/>
         <v>151.42699999999999</v>
       </c>
       <c r="V77" s="4">
-        <f>SUM(V74:V76)</f>
+        <f t="shared" si="174"/>
         <v>238.66400000000002</v>
       </c>
-    </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W77" s="4">
+        <f t="shared" si="174"/>
+        <v>-28.896999999999991</v>
+      </c>
+      <c r="X77" s="4">
+        <f t="shared" si="174"/>
+        <v>6.4499999999999789</v>
+      </c>
+    </row>
+    <row r="78" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -5982,8 +7165,15 @@
         <f>-6.745-U78-T78-S78</f>
         <v>-7.7049999999999992</v>
       </c>
-    </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W78" s="3">
+        <v>3.98</v>
+      </c>
+      <c r="X78" s="3">
+        <f>11.518-W78</f>
+        <v>7.5380000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>65</v>
       </c>
@@ -5997,19 +7187,27 @@
         <v>-310.44200000000001</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" ref="T79:V79" si="139">+T78+T77+T72+T67</f>
+        <f t="shared" ref="T79:X79" si="175">+T78+T77+T72+T67</f>
         <v>-7.5899999999999466</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="139"/>
+        <f t="shared" si="175"/>
         <v>256.38099999999974</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="139"/>
+        <f t="shared" si="175"/>
         <v>1331.9450000000002</v>
       </c>
-    </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W79" s="4">
+        <f t="shared" si="175"/>
+        <v>-1104.931</v>
+      </c>
+      <c r="X79" s="4">
+        <f t="shared" si="175"/>
+        <v>-63.771000000000299</v>
+      </c>
+    </row>
+    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -6029,7 +7227,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>84</v>
       </c>
@@ -6051,60 +7249,60 @@
       <c r="V83">
         <v>711</v>
       </c>
-      <c r="AE83">
+      <c r="AI83">
         <f>+N83</f>
         <v>367</v>
       </c>
-      <c r="AF83">
+      <c r="AJ83">
         <f>+R83</f>
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="R84" s="8">
         <v>0.62</v>
       </c>
-      <c r="AF84" s="8">
+      <c r="AJ84" s="8">
         <v>0.62</v>
       </c>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="R85" s="8">
         <v>0.38</v>
       </c>
-      <c r="AF85" s="8">
+      <c r="AJ85" s="8">
         <v>0.38</v>
       </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="R86" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF86" s="8">
+      <c r="AJ86" s="8">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="R87" s="8">
         <v>0.45</v>
       </c>
-      <c r="AF87" s="8">
+      <c r="AJ87" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
       <c r="U89" s="17">
         <f>+U67/U19</f>
         <v>0.57858406982065147</v>
